--- a/code/graphs.xlsx
+++ b/code/graphs.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Weights" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Uncertainty Budget" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="82">
   <si>
     <t xml:space="preserve">SensibilityCoeficientsVariables</t>
   </si>
@@ -186,22 +187,363 @@
   </si>
   <si>
     <t xml:space="preserve">Standard Combined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source of Uncertainty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input Magnitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source of Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original Uncertainty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type, Distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Uncertainty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensibility Coeficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Degrees of Freedom</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Number of Transitions </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">N</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1a</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Maximum </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Error</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B, Rectangular</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Wavelength </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">λ</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2a</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Maximum </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">λ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Error</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Initial Length </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">3a</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Maximum </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Error</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Object Temperature </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">T</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">4a</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Maximum </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Error</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Temperature of Reference </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">5a</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Maximum </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Error</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
     <numFmt numFmtId="166" formatCode="0.00%"/>
+    <numFmt numFmtId="167" formatCode="&quot;± &quot;General"/>
+    <numFmt numFmtId="168" formatCode="&quot;± &quot;General&quot; nm&quot;"/>
+    <numFmt numFmtId="169" formatCode="&quot;± &quot;General&quot; mm&quot;"/>
+    <numFmt numFmtId="170" formatCode="&quot;± &quot;General&quot; °C&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -223,9 +565,15 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -234,21 +582,84 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="DejaVu Sans"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0E0E0"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -277,33 +688,69 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -315,15 +762,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -349,7 +787,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFE0E0E0"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -387,7 +825,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -475,6 +913,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -493,6 +932,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -712,17 +1152,17 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="97949361"/>
-        <c:axId val="50089556"/>
+        <c:axId val="4370573"/>
+        <c:axId val="45306667"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97949361"/>
+        <c:axId val="4370573"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -744,7 +1184,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50089556"/>
+        <c:crossAx val="45306667"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -752,7 +1192,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50089556"/>
+        <c:axId val="45306667"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -817,7 +1257,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97949361"/>
+        <c:crossAx val="4370573"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -855,9 +1295,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>772920</xdr:colOff>
+      <xdr:colOff>772560</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -865,8 +1305,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6522840" y="2261520"/>
-        <a:ext cx="8852040" cy="4428720"/>
+        <a:off x="6523560" y="2261520"/>
+        <a:ext cx="8851320" cy="4428360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -886,697 +1326,697 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>8.3125E-008</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>2.30325520833333E-015</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <f aca="false">SQRT(E2)</f>
         <v>4.79922411263876E-008</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>19.53125</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="3" t="n">
         <v>3.17891438802083E-015</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <f aca="false">SQRT(E3)</f>
         <v>5.63818622255494E-008</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>-0.0001298828125</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="3" t="n">
         <v>1.40579541524251E-017</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <f aca="false">SQRT(E4)</f>
         <v>3.74939383799903E-009</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>-2.59765625E-007</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="3" t="n">
         <v>5.62318166097005E-015</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <f aca="false">SQRT(E5)</f>
         <v>7.49878767599807E-008</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>2.59765625E-007</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="3" t="n">
         <v>5.62318166097005E-015</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <f aca="false">SQRT(E6)</f>
         <v>7.49878767599807E-008</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <f aca="false">SQRT(E7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>0.01220703125</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="3" t="n">
         <v>3.39084201388889E-020</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <f aca="false">SQRT(E8)</f>
         <v>1.84142390933997E-010</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>2.69912719726563E-012</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="3" t="n">
         <v>7.49757554796008E-022</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <f aca="false">SQRT(E9)</f>
         <v>2.73817010939059E-011</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>1.07965087890625E-017</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="3" t="n">
         <v>2.99903021918403E-019</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <f aca="false">SQRT(E10)</f>
         <v>5.47634021878118E-010</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>1.07965087890625E-017</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="3" t="n">
         <v>2.99903021918403E-019</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <f aca="false">SQRT(E11)</f>
         <v>5.47634021878118E-010</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>0.01220703125</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="3" t="n">
         <v>3.39084201388889E-020</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <f aca="false">SQRT(E12)</f>
         <v>1.84142390933997E-010</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <f aca="false">SQRT(E13)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>149011.611938477</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="3" t="n">
         <v>1.03480286068387E-021</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="1" t="n">
         <f aca="false">SQRT(E14)</f>
         <v>3.21683518490437E-011</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>0.596046447753906</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="3" t="n">
         <v>4.13921144273546E-019</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <f aca="false">SQRT(E15)</f>
         <v>6.43367036980871E-010</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>0.596046447753906</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="3" t="n">
         <v>4.13921144273546E-019</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <f aca="false">SQRT(E16)</f>
         <v>6.43367036980871E-010</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>5.39825439453125E-013</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="3" t="n">
         <v>1.49951510959201E-022</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="1" t="n">
         <f aca="false">SQRT(E17)</f>
         <v>1.22454689971108E-011</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>29802.3223876953</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="3" t="n">
         <v>2.06960572136773E-022</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="1" t="n">
         <f aca="false">SQRT(E18)</f>
         <v>1.43861242917185E-011</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>2.10869312286377E-005</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="3" t="n">
         <v>1.46437022421095E-023</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <f aca="false">SQRT(E19)</f>
         <v>3.82670906159712E-012</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>2.63586640357971E-011</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="3" t="n">
         <v>1.83046278026369E-021</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="1" t="n">
         <f aca="false">SQRT(E20)</f>
         <v>4.2783907959228E-011</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>2.63586640357971E-011</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="3" t="n">
         <v>1.83046278026369E-021</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="1" t="n">
         <f aca="false">SQRT(E21)</f>
         <v>4.2783907959228E-011</v>
       </c>
-      <c r="G21" s="3"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>2.1593017578125E-018</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="3" t="n">
         <v>5.99806043836806E-020</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" s="1" t="n">
         <f aca="false">SQRT(E22)</f>
         <v>2.44909379942216E-010</v>
       </c>
-      <c r="G22" s="3"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>0.119209289550781</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="3" t="n">
         <v>8.27842288547092E-020</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="1" t="n">
         <f aca="false">SQRT(E23)</f>
         <v>2.8772248583437E-010</v>
       </c>
-      <c r="G23" s="3"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <v>2.63586640357971E-011</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="3" t="n">
         <v>1.83046278026369E-021</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="1" t="n">
         <f aca="false">SQRT(E24)</f>
         <v>4.2783907959228E-011</v>
       </c>
-      <c r="G24" s="3"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <v>3.37390899658203E-016</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="3" t="n">
         <v>2.34299235873752E-018</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25" s="1" t="n">
         <f aca="false">SQRT(E25)</f>
         <v>1.53068362463885E-009</v>
       </c>
-      <c r="G25" s="3"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <v>3.37390899658203E-016</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="3" t="n">
         <v>2.34299235873752E-018</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26" s="1" t="n">
         <f aca="false">SQRT(E26)</f>
         <v>1.53068362463885E-009</v>
       </c>
-      <c r="G26" s="3"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <v>2.1593017578125E-018</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="3" t="n">
         <v>5.99806043836806E-020</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27" s="1" t="n">
         <f aca="false">SQRT(E27)</f>
         <v>2.44909379942216E-010</v>
       </c>
-      <c r="G27" s="3"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <v>0.119209289550781</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="3" t="n">
         <v>8.27842288547092E-020</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28" s="1" t="n">
         <f aca="false">SQRT(E28)</f>
         <v>2.8772248583437E-010</v>
       </c>
-      <c r="G28" s="3"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="1" t="n">
         <v>2.63586640357971E-011</v>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="3" t="n">
         <v>1.83046278026369E-021</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29" s="1" t="n">
         <f aca="false">SQRT(E29)</f>
         <v>4.2783907959228E-011</v>
       </c>
-      <c r="G29" s="3"/>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="1" t="n">
         <v>3.37390899658203E-016</v>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="3" t="n">
         <v>2.34299235873752E-018</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30" s="1" t="n">
         <f aca="false">SQRT(E30)</f>
         <v>1.53068362463885E-009</v>
       </c>
-      <c r="G30" s="3"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="1" t="n">
         <v>3.37390899658203E-016</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="3" t="n">
         <v>2.34299235873752E-018</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31" s="1" t="n">
         <f aca="false">SQRT(E31)</f>
         <v>1.53068362463885E-009</v>
       </c>
-      <c r="G31" s="3"/>
+      <c r="G31" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1596,397 +2036,397 @@
   </sheetPr>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I49" activeCellId="0" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.78"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="1" t="n">
         <v>7.49878767599807E-008</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B2))/$D$2</f>
         <v>0.57934197923827</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <f aca="false">SQRT(SUMSQ(B2:B31))</f>
         <v>1.29436290562918E-007</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="1" t="n">
         <v>7.49878767599807E-008</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B3))/$D$2</f>
         <v>0.819313284290834</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="1" t="n">
         <v>5.63818622255494E-008</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B4))/$D$2</f>
         <v>0.927910380376601</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="1" t="n">
         <v>4.79922411263876E-008</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B5))/$D$2</f>
         <v>0.999247037529383</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="1" t="n">
         <v>3.74939383799903E-009</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B6))/$D$2</f>
         <v>0.999666811909607</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="1" t="n">
         <v>1.53068362463885E-009</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B7))/$D$2</f>
         <v>0.999736757170221</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="1" t="n">
         <v>1.53068362463885E-009</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B8))/$D$2</f>
         <v>0.999806697537549</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="1" t="n">
         <v>1.53068362463885E-009</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B9))/$D$2</f>
         <v>0.999876633012619</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="1" t="n">
         <v>1.53068362463885E-009</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B10))/$D$2</f>
         <v>0.999946563596457</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="1" t="n">
         <v>6.43367036980871E-010</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B11))/$D$2</f>
         <v>0.999958917267279</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="5" t="n">
+      <c r="B12" s="1" t="n">
         <v>6.43367036980871E-010</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B12))/$D$2</f>
         <v>0.999971270785482</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="1" t="n">
         <v>5.47634021878118E-010</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B13))/$D$2</f>
         <v>0.999980221326005</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="1" t="n">
         <v>5.47634021878118E-010</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B14))/$D$2</f>
         <v>0.999989171786416</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="5" t="n">
+      <c r="B15" s="1" t="n">
         <v>2.8772248583437E-010</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B15))/$D$2</f>
         <v>0.999991642427515</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="5" t="n">
+      <c r="B16" s="1" t="n">
         <v>2.8772248583437E-010</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B16))/$D$2</f>
         <v>0.999994113062509</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="5" t="n">
+      <c r="B17" s="1" t="n">
         <v>2.44909379942216E-010</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B17))/$D$2</f>
         <v>0.999995903136133</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="5" t="n">
+      <c r="B18" s="1" t="n">
         <v>2.44909379942216E-010</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B18))/$D$2</f>
         <v>0.999997693206552</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="5" t="n">
+      <c r="B19" s="1" t="n">
         <v>1.84142390933997E-010</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B19))/$D$2</f>
         <v>0.999998705173261</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="5" t="n">
+      <c r="B20" s="1" t="n">
         <v>1.84142390933997E-010</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B20))/$D$2</f>
         <v>0.999999717138945</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="5" t="n">
+      <c r="B21" s="1" t="n">
         <v>4.2783907959228E-011</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B21))/$D$2</f>
         <v>0.999999771767398</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="5" t="n">
+      <c r="B22" s="1" t="n">
         <v>4.2783907959228E-011</v>
       </c>
-      <c r="C22" s="3" t="n">
+      <c r="C22" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B22))/$D$2</f>
         <v>0.999999826395848</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="5" t="n">
+      <c r="B23" s="1" t="n">
         <v>4.2783907959228E-011</v>
       </c>
-      <c r="C23" s="3" t="n">
+      <c r="C23" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B23))/$D$2</f>
         <v>0.999999881024295</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="5" t="n">
+      <c r="B24" s="1" t="n">
         <v>4.2783907959228E-011</v>
       </c>
-      <c r="C24" s="3" t="n">
+      <c r="C24" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B24))/$D$2</f>
         <v>0.999999935652739</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="5" t="n">
+      <c r="B25" s="1" t="n">
         <v>3.21683518490437E-011</v>
       </c>
-      <c r="C25" s="3" t="n">
+      <c r="C25" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B25))/$D$2</f>
         <v>0.999999966535458</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="5" t="n">
+      <c r="B26" s="1" t="n">
         <v>2.73817010939059E-011</v>
       </c>
-      <c r="C26" s="3" t="n">
+      <c r="C26" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B26))/$D$2</f>
         <v>0.999999988911267</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="5" t="n">
+      <c r="B27" s="1" t="n">
         <v>1.43861242917185E-011</v>
       </c>
-      <c r="C27" s="3" t="n">
+      <c r="C27" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B27))/$D$2</f>
         <v>0.999999995087811</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="5" t="n">
+      <c r="B28" s="1" t="n">
         <v>1.22454689971108E-011</v>
       </c>
-      <c r="C28" s="3" t="n">
+      <c r="C28" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B28))/$D$2</f>
         <v>0.999999999562972</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="5" t="n">
+      <c r="B29" s="1" t="n">
         <v>3.82670906159712E-012</v>
       </c>
-      <c r="C29" s="3" t="n">
+      <c r="C29" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B29))/$D$2</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="5" t="n">
+      <c r="B30" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C30" s="3" t="n">
+      <c r="C30" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B30))/$D$2</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="5" t="n">
+      <c r="B31" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C31" s="3" t="n">
+      <c r="C31" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B31))/$D$2</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B32" s="6" t="n">
@@ -2003,4 +2443,275 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.77"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="43.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/code/graphs.xlsx
+++ b/code/graphs.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Weights" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Uncertainty Budget" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="123">
   <si>
     <t xml:space="preserve">SensibilityCoeficientsVariables</t>
   </si>
@@ -1130,6 +1131,12 @@
   </si>
   <si>
     <t xml:space="preserve">U =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1159,7 @@
     <numFmt numFmtId="176" formatCode="0.000E+00&quot; °C^-1&quot;"/>
     <numFmt numFmtId="177" formatCode="General"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1265,6 +1272,16 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1617,7 +1634,7 @@
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF141A55"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -1630,7 +1647,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1935,11 +1952,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="59889324"/>
-        <c:axId val="46880926"/>
+        <c:axId val="51582710"/>
+        <c:axId val="95363137"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59889324"/>
+        <c:axId val="51582710"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1970,7 +1987,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46880926"/>
+        <c:crossAx val="95363137"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1978,7 +1995,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46880926"/>
+        <c:axId val="95363137"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2014,7 +2031,7 @@
                     </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Contribution to the Standard Combined Uncertainty</a:t>
+                  <a:t>Contribution to the Standard Combined Uncertainty / K⁻¹</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2052,9 +2069,262 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59889324"/>
+        <c:crossAx val="51582710"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="141a55"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="141a55"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$2:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.033</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="12519970"/>
+        <c:axId val="8627820"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="12519970"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Temperature  / °C</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8627820"/>
+        <c:crosses val="min"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="8627820"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="80.04"/>
+          <c:min val="79.99"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Length / mm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="12519970"/>
+        <c:crosses val="min"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2114,6 +2384,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>364320</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>40680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>455400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>54360</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1990080" y="365760"/>
+        <a:ext cx="6593400" cy="2939760"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -2121,7 +2426,7 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2831,8 +3136,8 @@
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2908,7 +3213,7 @@
       </c>
       <c r="C5" s="3" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B5))/$D$2</f>
-        <v>0.999247037529384</v>
+        <v>0.999247037529383</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2947,7 +3252,7 @@
       </c>
       <c r="C8" s="3" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B8))/$D$2</f>
-        <v>0.99980669753755</v>
+        <v>0.999806697537549</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2959,7 +3264,7 @@
       </c>
       <c r="C9" s="3" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B9))/$D$2</f>
-        <v>0.99987663301262</v>
+        <v>0.999876633012619</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2971,7 +3276,7 @@
       </c>
       <c r="C10" s="3" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B10))/$D$2</f>
-        <v>0.999946563596458</v>
+        <v>0.999946563596457</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3007,7 +3312,7 @@
       </c>
       <c r="C13" s="3" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B13))/$D$2</f>
-        <v>0.999980221326006</v>
+        <v>0.999980221326005</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3043,7 +3348,7 @@
       </c>
       <c r="C16" s="3" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B16))/$D$2</f>
-        <v>0.99999411306251</v>
+        <v>0.999994113062509</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3187,7 +3492,7 @@
       </c>
       <c r="C28" s="3" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B28))/$D$2</f>
-        <v>0.999999999562973</v>
+        <v>0.999999999562972</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3253,7 +3558,7 @@
   </sheetPr>
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -3748,4 +4053,53 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>80.033</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/code/graphs.xlsx
+++ b/code/graphs.xlsx
@@ -721,7 +721,8 @@
     <t xml:space="preserve">λ, λ</t>
   </si>
   <si>
-    <t xml:space="preserve">Standard Combined</t>
+    <t xml:space="preserve">Standard
+ Combined</t>
   </si>
   <si>
     <t xml:space="preserve">No.</t>
@@ -1223,19 +1224,19 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Bitstream Vera Serif"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1273,12 +1274,12 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="22"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="26"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1406,7 +1407,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1433,6 +1434,10 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1647,7 +1652,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1842,7 +1847,8 @@
                   <c:v>λ, λ</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Standard Combined</c:v>
+                  <c:v>Standard
+ Combined</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1950,13 +1956,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:gapWidth val="100"/>
+        <c:gapWidth val="40"/>
         <c:overlap val="0"/>
-        <c:axId val="51582710"/>
-        <c:axId val="95363137"/>
+        <c:axId val="23465113"/>
+        <c:axId val="64765260"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51582710"/>
+        <c:axId val="23465113"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1978,7 +1984,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1500" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1987,7 +1993,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95363137"/>
+        <c:crossAx val="64765260"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1995,21 +2001,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95363137"/>
+        <c:axId val="64765260"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2017,7 +2014,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2025,7 +2022,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2060,7 +2057,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2069,7 +2066,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51582710"/>
+        <c:crossAx val="23465113"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2096,7 +2093,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2113,7 +2110,7 @@
             <a:solidFill>
               <a:srgbClr val="141a55"/>
             </a:solidFill>
-            <a:ln w="28800">
+            <a:ln w="64800">
               <a:solidFill>
                 <a:srgbClr val="141a55"/>
               </a:solidFill>
@@ -2187,11 +2184,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="12519970"/>
-        <c:axId val="8627820"/>
+        <c:axId val="41377052"/>
+        <c:axId val="34348541"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="12519970"/>
+        <c:axId val="41377052"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2204,12 +2201,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="2600" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr b="0" sz="2600" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Temperature  / °C</a:t>
@@ -2241,13 +2238,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="2200" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8627820"/>
+        <c:crossAx val="34348541"/>
         <c:crosses val="min"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2255,7 +2252,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8627820"/>
+        <c:axId val="34348541"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80.04"/>
@@ -2263,15 +2260,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2279,12 +2267,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="2600" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr b="0" sz="2600" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Length / mm</a:t>
@@ -2316,13 +2304,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="2200" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12519970"/>
+        <c:crossAx val="41377052"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2359,10 +2347,10 @@
       <xdr:rowOff>148320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>772200</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>717120</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2371,7 +2359,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6525360" y="2303640"/>
-        <a:ext cx="8870400" cy="4410000"/>
+        <a:ext cx="11259360" cy="5597640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2388,16 +2376,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>364320</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>189360</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>40320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>455400</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>286920</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>128520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2405,8 +2393,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1990080" y="365760"/>
-        <a:ext cx="6593400" cy="2939760"/>
+        <a:off x="189360" y="2153520"/>
+        <a:ext cx="18792000" cy="8379000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2426,7 +2414,7 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -3136,8 +3124,8 @@
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D10" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U36" activeCellId="0" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3531,11 +3519,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+    <row r="32" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="7" t="n">
+      <c r="B32" s="8" t="n">
         <v>1.29436290562918E-007</v>
       </c>
     </row>
@@ -3558,7 +3546,7 @@
   </sheetPr>
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -3576,470 +3564,470 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="n">
+      <c r="A2" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="13" t="n">
+      <c r="C2" s="14" t="n">
         <v>125</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="13" t="n">
+      <c r="G2" s="14" t="n">
         <f aca="false">1/SQRT(3)</f>
         <v>0.577350269189626</v>
       </c>
-      <c r="H2" s="14" t="n">
+      <c r="H2" s="15" t="n">
         <f aca="false">Data!D2</f>
         <v>8.3125E-008</v>
       </c>
-      <c r="I2" s="14" t="n">
+      <c r="I2" s="15" t="n">
         <f aca="false">Weights!B5</f>
         <v>4.79922411263876E-008</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="18" t="n">
+      <c r="E3" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="17" t="n">
+      <c r="G3" s="18" t="n">
         <f aca="false">1/SQRT(3)</f>
         <v>0.577350269189626</v>
       </c>
-      <c r="H3" s="19" t="n">
+      <c r="H3" s="20" t="n">
         <f aca="false">Data!D2</f>
         <v>8.3125E-008</v>
       </c>
-      <c r="I3" s="19" t="n">
+      <c r="I3" s="20" t="n">
         <f aca="false">Weights!B5</f>
         <v>4.79922411263876E-008</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="21" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="n">
+      <c r="A4" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="21" t="n">
+      <c r="G4" s="22" t="n">
         <f aca="false">5*10^(-9) /SQRT(3)</f>
         <v>2.88675134594813E-009</v>
       </c>
-      <c r="H4" s="22" t="n">
+      <c r="H4" s="23" t="n">
         <f aca="false">Data!D3</f>
         <v>19.53125</v>
       </c>
-      <c r="I4" s="14" t="n">
+      <c r="I4" s="15" t="n">
         <f aca="false">Weights!B4</f>
         <v>5.63818622255494E-008</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="23" t="n">
+      <c r="E5" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="24" t="n">
+      <c r="G5" s="25" t="n">
         <f aca="false">5*10^(-9) /SQRT(3)</f>
         <v>2.88675134594813E-009</v>
       </c>
-      <c r="H5" s="25" t="n">
+      <c r="H5" s="26" t="n">
         <f aca="false">Data!D3</f>
         <v>19.53125</v>
       </c>
-      <c r="I5" s="19" t="n">
+      <c r="I5" s="20" t="n">
         <f aca="false">Weights!B4</f>
         <v>5.63818622255494E-008</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="21" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="n">
+      <c r="A6" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="21" t="n">
+      <c r="G6" s="22" t="n">
         <f aca="false">0.05*10^(-3) /SQRT(3)</f>
         <v>2.88675134594813E-005</v>
       </c>
-      <c r="H6" s="22" t="n">
+      <c r="H6" s="23" t="n">
         <f aca="false">Data!D4</f>
         <v>-0.0001298828125</v>
       </c>
-      <c r="I6" s="14" t="n">
+      <c r="I6" s="15" t="n">
         <f aca="false">Weights!B6</f>
         <v>3.74939383799903E-009</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="26" t="n">
+      <c r="E7" s="27" t="n">
         <v>0.05</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="24" t="n">
+      <c r="G7" s="25" t="n">
         <f aca="false">0.05*10^(-3) /SQRT(3)</f>
         <v>2.88675134594813E-005</v>
       </c>
-      <c r="H7" s="25" t="n">
+      <c r="H7" s="26" t="n">
         <f aca="false">Data!D4</f>
         <v>-0.0001298828125</v>
       </c>
-      <c r="I7" s="19" t="n">
+      <c r="I7" s="20" t="n">
         <f aca="false">Weights!B6</f>
         <v>3.74939383799903E-009</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="21" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="n">
+      <c r="A8" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="27" t="n">
+      <c r="G8" s="28" t="n">
         <f aca="false">0.5 /SQRT(3)</f>
         <v>0.288675134594813</v>
       </c>
-      <c r="H8" s="28" t="n">
+      <c r="H8" s="29" t="n">
         <f aca="false">Data!D5</f>
         <v>-2.59765625E-007</v>
       </c>
-      <c r="I8" s="14" t="n">
+      <c r="I8" s="15" t="n">
         <f aca="false">Weights!B2</f>
         <v>7.49878767599807E-008</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="29" t="n">
+      <c r="E9" s="30" t="n">
         <v>0.5</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="30" t="n">
+      <c r="G9" s="31" t="n">
         <f aca="false">0.5 /SQRT(3)</f>
         <v>0.288675134594813</v>
       </c>
-      <c r="H9" s="31" t="n">
+      <c r="H9" s="32" t="n">
         <f aca="false">Data!D5</f>
         <v>-2.59765625E-007</v>
       </c>
-      <c r="I9" s="19" t="n">
+      <c r="I9" s="20" t="n">
         <f aca="false">Weights!B3</f>
         <v>7.49878767599807E-008</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="21" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="n">
+      <c r="A10" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="27" t="n">
+      <c r="G10" s="28" t="n">
         <f aca="false">0.5 /SQRT(3)</f>
         <v>0.288675134594813</v>
       </c>
-      <c r="H10" s="28" t="n">
+      <c r="H10" s="29" t="n">
         <f aca="false">Data!D6</f>
         <v>2.59765625E-007</v>
       </c>
-      <c r="I10" s="14" t="n">
+      <c r="I10" s="15" t="n">
         <f aca="false">Weights!B3</f>
         <v>7.49878767599807E-008</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="29" t="n">
+      <c r="E11" s="30" t="n">
         <v>0.5</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="30" t="n">
+      <c r="G11" s="31" t="n">
         <f aca="false">0.5 /SQRT(3)</f>
         <v>0.288675134594813</v>
       </c>
-      <c r="H11" s="31" t="n">
+      <c r="H11" s="32" t="n">
         <f aca="false">Data!D6</f>
         <v>2.59765625E-007</v>
       </c>
-      <c r="I11" s="19" t="n">
+      <c r="I11" s="20" t="n">
         <f aca="false">Weights!B3</f>
         <v>7.49878767599807E-008</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="21" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="n">
+      <c r="A12" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="19" t="n">
+      <c r="I12" s="20" t="n">
         <f aca="false">SUM(Weights!B7:B31)</f>
         <v>1.01994291168248E-008</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="21" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="34" t="n">
+      <c r="C13" s="35" t="n">
         <f aca="false">1.039 *10^-5</f>
         <v>1.039E-005</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="I13" s="36" t="n">
+      <c r="I13" s="37" t="n">
         <v>1.29436290562918E-007</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="J13" s="38" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H14" s="38" t="s">
+      <c r="H14" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="I14" s="39" t="n">
+      <c r="I14" s="40" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H15" s="40" t="s">
+      <c r="H15" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="I15" s="41" t="n">
+      <c r="I15" s="42" t="n">
         <f aca="false">I13*2</f>
         <v>2.58872581125836E-007</v>
       </c>
@@ -4062,8 +4050,8 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB23" activeCellId="0" sqref="AB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/code/graphs.xlsx
+++ b/code/graphs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -1214,6 +1214,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1224,7 +1225,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="15"/>
+      <sz val="6"/>
       <color rgb="FF000000"/>
       <name val="Bitstream Vera Serif"/>
       <family val="2"/>
@@ -1407,176 +1408,180 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="174" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="175" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="174" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1601,7 +1606,7 @@
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF141A55"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
@@ -1635,24 +1640,24 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFB8C00"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFE64A19"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF141A55"/>
+      <rgbColor rgb="FF1A237E"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF3949AB"/>
+      <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1679,10 +1684,13 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="3949ab"/>
+              <a:srgbClr val="1a237e"/>
             </a:solidFill>
-            <a:ln w="0">
-              <a:noFill/>
+            <a:ln w="36000">
+              <a:solidFill>
+                <a:srgbClr val="1a237e"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -1691,10 +1699,13 @@
             <c:invertIfNegative val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="fb8c00"/>
+                <a:srgbClr val="e64a19"/>
               </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
+              <a:ln w="36000">
+                <a:solidFill>
+                  <a:srgbClr val="e64a19"/>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
             </c:spPr>
           </c:dPt>
@@ -1956,13 +1967,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:gapWidth val="40"/>
+        <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="23465113"/>
-        <c:axId val="64765260"/>
+        <c:axId val="1885940"/>
+        <c:axId val="3454870"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="23465113"/>
+        <c:axId val="1885940"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1984,7 +1995,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1500" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="600" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1993,7 +2004,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64765260"/>
+        <c:crossAx val="3454870"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2001,7 +2012,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64765260"/>
+        <c:axId val="3454870"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2066,7 +2077,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23465113"/>
+        <c:crossAx val="1885940"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2093,7 +2104,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2132,6 +2143,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2184,11 +2196,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="41377052"/>
-        <c:axId val="34348541"/>
+        <c:axId val="29058050"/>
+        <c:axId val="71063412"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="41377052"/>
+        <c:axId val="29058050"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2222,7 +2234,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2244,7 +2256,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34348541"/>
+        <c:crossAx val="71063412"/>
         <c:crosses val="min"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2252,7 +2264,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34348541"/>
+        <c:axId val="71063412"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80.04"/>
@@ -2288,7 +2300,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2310,7 +2322,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41377052"/>
+        <c:crossAx val="29058050"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2348,9 +2360,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>717120</xdr:colOff>
+      <xdr:colOff>716400</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>64800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2358,8 +2370,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6525360" y="2303640"/>
-        <a:ext cx="11259360" cy="5597640"/>
+        <a:off x="6526080" y="2303640"/>
+        <a:ext cx="11258640" cy="5596920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2383,9 +2395,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>286920</xdr:colOff>
+      <xdr:colOff>286200</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>128520</xdr:rowOff>
+      <xdr:rowOff>127800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2394,7 +2406,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="189360" y="2153520"/>
-        <a:ext cx="18792000" cy="8379000"/>
+        <a:ext cx="18791280" cy="8378280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2414,697 +2426,697 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>8.3125E-008</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>2.30325520833333E-015</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <f aca="false">SQRT(E2)</f>
         <v>4.79922411263876E-008</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>19.53125</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="3" t="n">
         <v>3.17891438802083E-015</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <f aca="false">SQRT(E3)</f>
         <v>5.63818622255494E-008</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>-0.0001298828125</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="3" t="n">
         <v>1.40579541524251E-017</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <f aca="false">SQRT(E4)</f>
         <v>3.74939383799903E-009</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>-2.59765625E-007</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="3" t="n">
         <v>5.62318166097005E-015</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <f aca="false">SQRT(E5)</f>
         <v>7.49878767599807E-008</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>2.59765625E-007</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="3" t="n">
         <v>5.62318166097005E-015</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <f aca="false">SQRT(E6)</f>
         <v>7.49878767599807E-008</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <f aca="false">SQRT(E7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>0.01220703125</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="3" t="n">
         <v>3.39084201388889E-020</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <f aca="false">SQRT(E8)</f>
         <v>1.84142390933997E-010</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>2.69912719726563E-012</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="3" t="n">
         <v>7.49757554796008E-022</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <f aca="false">SQRT(E9)</f>
         <v>2.73817010939059E-011</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>1.07965087890625E-017</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="3" t="n">
         <v>2.99903021918403E-019</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <f aca="false">SQRT(E10)</f>
         <v>5.47634021878118E-010</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>1.07965087890625E-017</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="3" t="n">
         <v>2.99903021918403E-019</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <f aca="false">SQRT(E11)</f>
         <v>5.47634021878118E-010</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>0.01220703125</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="3" t="n">
         <v>3.39084201388889E-020</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <f aca="false">SQRT(E12)</f>
         <v>1.84142390933997E-010</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <f aca="false">SQRT(E13)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>149011.611938477</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="3" t="n">
         <v>1.03480286068387E-021</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="1" t="n">
         <f aca="false">SQRT(E14)</f>
         <v>3.21683518490437E-011</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>0.596046447753906</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="3" t="n">
         <v>4.13921144273546E-019</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <f aca="false">SQRT(E15)</f>
         <v>6.43367036980871E-010</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>0.596046447753906</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="3" t="n">
         <v>4.13921144273546E-019</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <f aca="false">SQRT(E16)</f>
         <v>6.43367036980871E-010</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>5.39825439453125E-013</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="3" t="n">
         <v>1.49951510959201E-022</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="1" t="n">
         <f aca="false">SQRT(E17)</f>
         <v>1.22454689971108E-011</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>29802.3223876953</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="3" t="n">
         <v>2.06960572136773E-022</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="1" t="n">
         <f aca="false">SQRT(E18)</f>
         <v>1.43861242917185E-011</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>2.10869312286377E-005</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="3" t="n">
         <v>1.46437022421095E-023</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <f aca="false">SQRT(E19)</f>
         <v>3.82670906159712E-012</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>2.63586640357971E-011</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="3" t="n">
         <v>1.83046278026369E-021</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="1" t="n">
         <f aca="false">SQRT(E20)</f>
         <v>4.2783907959228E-011</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>2.63586640357971E-011</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="3" t="n">
         <v>1.83046278026369E-021</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="1" t="n">
         <f aca="false">SQRT(E21)</f>
         <v>4.2783907959228E-011</v>
       </c>
-      <c r="G21" s="3"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>2.1593017578125E-018</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="3" t="n">
         <v>5.99806043836806E-020</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" s="1" t="n">
         <f aca="false">SQRT(E22)</f>
         <v>2.44909379942216E-010</v>
       </c>
-      <c r="G22" s="3"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>0.119209289550781</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="3" t="n">
         <v>8.27842288547092E-020</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="1" t="n">
         <f aca="false">SQRT(E23)</f>
         <v>2.8772248583437E-010</v>
       </c>
-      <c r="G23" s="3"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <v>2.63586640357971E-011</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="3" t="n">
         <v>1.83046278026369E-021</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="1" t="n">
         <f aca="false">SQRT(E24)</f>
         <v>4.2783907959228E-011</v>
       </c>
-      <c r="G24" s="3"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <v>3.37390899658203E-016</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="3" t="n">
         <v>2.34299235873752E-018</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25" s="1" t="n">
         <f aca="false">SQRT(E25)</f>
         <v>1.53068362463885E-009</v>
       </c>
-      <c r="G25" s="3"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <v>3.37390899658203E-016</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="3" t="n">
         <v>2.34299235873752E-018</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26" s="1" t="n">
         <f aca="false">SQRT(E26)</f>
         <v>1.53068362463885E-009</v>
       </c>
-      <c r="G26" s="3"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <v>2.1593017578125E-018</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="3" t="n">
         <v>5.99806043836806E-020</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27" s="1" t="n">
         <f aca="false">SQRT(E27)</f>
         <v>2.44909379942216E-010</v>
       </c>
-      <c r="G27" s="3"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <v>0.119209289550781</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="3" t="n">
         <v>8.27842288547092E-020</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28" s="1" t="n">
         <f aca="false">SQRT(E28)</f>
         <v>2.8772248583437E-010</v>
       </c>
-      <c r="G28" s="3"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="1" t="n">
         <v>2.63586640357971E-011</v>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="3" t="n">
         <v>1.83046278026369E-021</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29" s="1" t="n">
         <f aca="false">SQRT(E29)</f>
         <v>4.2783907959228E-011</v>
       </c>
-      <c r="G29" s="3"/>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="1" t="n">
         <v>3.37390899658203E-016</v>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="3" t="n">
         <v>2.34299235873752E-018</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30" s="1" t="n">
         <f aca="false">SQRT(E30)</f>
         <v>1.53068362463885E-009</v>
       </c>
-      <c r="G30" s="3"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="1" t="n">
         <v>3.37390899658203E-016</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="3" t="n">
         <v>2.34299235873752E-018</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31" s="1" t="n">
         <f aca="false">SQRT(E31)</f>
         <v>1.53068362463885E-009</v>
       </c>
-      <c r="G31" s="3"/>
+      <c r="G31" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3124,406 +3136,406 @@
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D10" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U36" activeCellId="0" sqref="U36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D10" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S51" activeCellId="0" sqref="S51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.78"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>7.49878767599807E-008</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B2))/$D$2</f>
         <v>0.57934197923827</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <f aca="false">SQRT(SUMSQ(B2:B31))</f>
         <v>1.29436290562918E-007</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>7.49878767599807E-008</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B3))/$D$2</f>
         <v>0.819313284290834</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>5.63818622255494E-008</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B4))/$D$2</f>
         <v>0.927910380376601</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>4.79922411263876E-008</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B5))/$D$2</f>
         <v>0.999247037529383</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>3.74939383799903E-009</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B6))/$D$2</f>
         <v>0.999666811909607</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>1.53068362463885E-009</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B7))/$D$2</f>
         <v>0.999736757170221</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>1.53068362463885E-009</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B8))/$D$2</f>
         <v>0.999806697537549</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>1.53068362463885E-009</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B9))/$D$2</f>
         <v>0.999876633012619</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>1.53068362463885E-009</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B10))/$D$2</f>
         <v>0.999946563596457</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>6.43367036980871E-010</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B11))/$D$2</f>
         <v>0.999958917267279</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>6.43367036980871E-010</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B12))/$D$2</f>
         <v>0.999971270785482</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>5.47634021878118E-010</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B13))/$D$2</f>
         <v>0.999980221326005</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>5.47634021878118E-010</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B14))/$D$2</f>
         <v>0.999989171786416</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>2.8772248583437E-010</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B15))/$D$2</f>
         <v>0.999991642427515</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>2.8772248583437E-010</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B16))/$D$2</f>
         <v>0.999994113062509</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>2.44909379942216E-010</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B17))/$D$2</f>
         <v>0.999995903136133</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>2.44909379942216E-010</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B18))/$D$2</f>
         <v>0.999997693206552</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>1.84142390933997E-010</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B19))/$D$2</f>
         <v>0.999998705173261</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>1.84142390933997E-010</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B20))/$D$2</f>
         <v>0.999999717138945</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>4.2783907959228E-011</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B21))/$D$2</f>
         <v>0.999999771767398</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>4.2783907959228E-011</v>
       </c>
-      <c r="C22" s="3" t="n">
+      <c r="C22" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B22))/$D$2</f>
         <v>0.999999826395848</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>4.2783907959228E-011</v>
       </c>
-      <c r="C23" s="3" t="n">
+      <c r="C23" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B23))/$D$2</f>
         <v>0.999999881024295</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>4.2783907959228E-011</v>
       </c>
-      <c r="C24" s="3" t="n">
+      <c r="C24" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B24))/$D$2</f>
         <v>0.999999935652739</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>3.21683518490437E-011</v>
       </c>
-      <c r="C25" s="3" t="n">
+      <c r="C25" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B25))/$D$2</f>
         <v>0.999999966535458</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <v>2.73817010939059E-011</v>
       </c>
-      <c r="C26" s="3" t="n">
+      <c r="C26" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B26))/$D$2</f>
         <v>0.999999988911267</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>1.43861242917185E-011</v>
       </c>
-      <c r="C27" s="3" t="n">
+      <c r="C27" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B27))/$D$2</f>
         <v>0.999999995087811</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>1.22454689971108E-011</v>
       </c>
-      <c r="C28" s="3" t="n">
+      <c r="C28" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B28))/$D$2</f>
         <v>0.999999999562972</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="1" t="n">
         <v>3.82670906159712E-012</v>
       </c>
-      <c r="C29" s="3" t="n">
+      <c r="C29" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B29))/$D$2</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C30" s="3" t="n">
+      <c r="C30" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B30))/$D$2</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C31" s="3" t="n">
+      <c r="C31" s="4" t="n">
         <f aca="false">SQRT(SUMSQ($B$2:B31))/$D$2</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="8" t="n">
+      <c r="B32" s="9" t="n">
         <v>1.29436290562918E-007</v>
       </c>
     </row>
@@ -3546,488 +3558,488 @@
   </sheetPr>
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.77"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="n">
+      <c r="A2" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="14" t="n">
+      <c r="C2" s="15" t="n">
         <v>125</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="14" t="n">
+      <c r="G2" s="15" t="n">
         <f aca="false">1/SQRT(3)</f>
         <v>0.577350269189626</v>
       </c>
-      <c r="H2" s="15" t="n">
+      <c r="H2" s="16" t="n">
         <f aca="false">Data!D2</f>
         <v>8.3125E-008</v>
       </c>
-      <c r="I2" s="15" t="n">
+      <c r="I2" s="16" t="n">
         <f aca="false">Weights!B5</f>
         <v>4.79922411263876E-008</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="17" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="19" t="n">
+      <c r="E3" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="18" t="n">
+      <c r="G3" s="19" t="n">
         <f aca="false">1/SQRT(3)</f>
         <v>0.577350269189626</v>
       </c>
-      <c r="H3" s="20" t="n">
+      <c r="H3" s="21" t="n">
         <f aca="false">Data!D2</f>
         <v>8.3125E-008</v>
       </c>
-      <c r="I3" s="20" t="n">
+      <c r="I3" s="21" t="n">
         <f aca="false">Weights!B5</f>
         <v>4.79922411263876E-008</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="22" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="n">
+      <c r="A4" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="22" t="n">
+      <c r="G4" s="23" t="n">
         <f aca="false">5*10^(-9) /SQRT(3)</f>
         <v>2.88675134594813E-009</v>
       </c>
-      <c r="H4" s="23" t="n">
+      <c r="H4" s="24" t="n">
         <f aca="false">Data!D3</f>
         <v>19.53125</v>
       </c>
-      <c r="I4" s="15" t="n">
+      <c r="I4" s="16" t="n">
         <f aca="false">Weights!B4</f>
         <v>5.63818622255494E-008</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="17" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="24" t="n">
+      <c r="E5" s="25" t="n">
         <v>5</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="25" t="n">
+      <c r="G5" s="26" t="n">
         <f aca="false">5*10^(-9) /SQRT(3)</f>
         <v>2.88675134594813E-009</v>
       </c>
-      <c r="H5" s="26" t="n">
+      <c r="H5" s="27" t="n">
         <f aca="false">Data!D3</f>
         <v>19.53125</v>
       </c>
-      <c r="I5" s="20" t="n">
+      <c r="I5" s="21" t="n">
         <f aca="false">Weights!B4</f>
         <v>5.63818622255494E-008</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="22" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="n">
+      <c r="A6" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="22" t="n">
+      <c r="G6" s="23" t="n">
         <f aca="false">0.05*10^(-3) /SQRT(3)</f>
         <v>2.88675134594813E-005</v>
       </c>
-      <c r="H6" s="23" t="n">
+      <c r="H6" s="24" t="n">
         <f aca="false">Data!D4</f>
         <v>-0.0001298828125</v>
       </c>
-      <c r="I6" s="15" t="n">
+      <c r="I6" s="16" t="n">
         <f aca="false">Weights!B6</f>
         <v>3.74939383799903E-009</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="17" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="27" t="n">
+      <c r="E7" s="28" t="n">
         <v>0.05</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="25" t="n">
+      <c r="G7" s="26" t="n">
         <f aca="false">0.05*10^(-3) /SQRT(3)</f>
         <v>2.88675134594813E-005</v>
       </c>
-      <c r="H7" s="26" t="n">
+      <c r="H7" s="27" t="n">
         <f aca="false">Data!D4</f>
         <v>-0.0001298828125</v>
       </c>
-      <c r="I7" s="20" t="n">
+      <c r="I7" s="21" t="n">
         <f aca="false">Weights!B6</f>
         <v>3.74939383799903E-009</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="22" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="n">
+      <c r="A8" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="28" t="n">
+      <c r="G8" s="29" t="n">
         <f aca="false">0.5 /SQRT(3)</f>
         <v>0.288675134594813</v>
       </c>
-      <c r="H8" s="29" t="n">
+      <c r="H8" s="30" t="n">
         <f aca="false">Data!D5</f>
         <v>-2.59765625E-007</v>
       </c>
-      <c r="I8" s="15" t="n">
+      <c r="I8" s="16" t="n">
         <f aca="false">Weights!B2</f>
         <v>7.49878767599807E-008</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="17" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="30" t="n">
+      <c r="E9" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="31" t="n">
+      <c r="G9" s="32" t="n">
         <f aca="false">0.5 /SQRT(3)</f>
         <v>0.288675134594813</v>
       </c>
-      <c r="H9" s="32" t="n">
+      <c r="H9" s="33" t="n">
         <f aca="false">Data!D5</f>
         <v>-2.59765625E-007</v>
       </c>
-      <c r="I9" s="20" t="n">
+      <c r="I9" s="21" t="n">
         <f aca="false">Weights!B3</f>
         <v>7.49878767599807E-008</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="22" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="n">
+      <c r="A10" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="28" t="n">
+      <c r="G10" s="29" t="n">
         <f aca="false">0.5 /SQRT(3)</f>
         <v>0.288675134594813</v>
       </c>
-      <c r="H10" s="29" t="n">
+      <c r="H10" s="30" t="n">
         <f aca="false">Data!D6</f>
         <v>2.59765625E-007</v>
       </c>
-      <c r="I10" s="15" t="n">
+      <c r="I10" s="16" t="n">
         <f aca="false">Weights!B3</f>
         <v>7.49878767599807E-008</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="17" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="30" t="n">
+      <c r="E11" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="31" t="n">
+      <c r="G11" s="32" t="n">
         <f aca="false">0.5 /SQRT(3)</f>
         <v>0.288675134594813</v>
       </c>
-      <c r="H11" s="32" t="n">
+      <c r="H11" s="33" t="n">
         <f aca="false">Data!D6</f>
         <v>2.59765625E-007</v>
       </c>
-      <c r="I11" s="20" t="n">
+      <c r="I11" s="21" t="n">
         <f aca="false">Weights!B3</f>
         <v>7.49878767599807E-008</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="22" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="n">
+      <c r="A12" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="20" t="n">
+      <c r="I12" s="21" t="n">
         <f aca="false">SUM(Weights!B7:B31)</f>
         <v>1.01994291168248E-008</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="22" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="35" t="n">
+      <c r="C13" s="36" t="n">
         <f aca="false">1.039 *10^-5</f>
         <v>1.039E-005</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="I13" s="37" t="n">
+      <c r="I13" s="38" t="n">
         <v>1.29436290562918E-007</v>
       </c>
-      <c r="J13" s="38" t="s">
+      <c r="J13" s="39" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H14" s="39" t="s">
+      <c r="H14" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="I14" s="40" t="n">
+      <c r="I14" s="41" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H15" s="41" t="s">
+      <c r="H15" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="I15" s="42" t="n">
+      <c r="I15" s="43" t="n">
         <f aca="false">I13*2</f>
         <v>2.58872581125836E-007</v>
       </c>
@@ -4050,33 +4062,33 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AB23" activeCellId="0" sqref="AB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>80.033</v>
       </c>
     </row>

--- a/code/graphs.xlsx
+++ b/code/graphs.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Weights" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Uncertainty Budget" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Weights_2" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Uncertainty Budget" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="123">
   <si>
     <t xml:space="preserve">SensibilityCoeficientsVariables</t>
   </si>
@@ -1673,11 +1674,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Weights!$B$1</c:f>
+              <c:f>Data!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Contributions</c:v>
+                  <c:v>SensibilityCoeficientsVariables</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1764,216 +1765,122 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Weights!$A$2:$A$32</c:f>
+              <c:f>Data!$A$2:$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>T</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>T0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>λ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>P</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>L0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>T, T</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>T, T0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>T0, T</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>T0, T0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>λ, T</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>λ, T0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>P, T</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>P, T0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>T, λ</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>T0, λ</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>T, P</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>T0, P</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>P, λ</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>λ, P</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>L0, T</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>L0, T0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>T, L0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>T0, L0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>λ, L0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>P, L0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>L0, λ</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>L0, P</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>L0, L0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>P, P</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>λ, λ</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Standard
- Combined</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Weights!$B$2:$B$32</c:f>
+              <c:f>Data!$B$2:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>7.49878767599807E-008</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.49878767599807E-008</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.63818622255494E-008</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.79922411263876E-008</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.74939383799903E-009</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.53068362463885E-009</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.53068362463885E-009</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.53068362463885E-009</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.53068362463885E-009</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.43367036980871E-010</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.43367036980871E-010</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.47634021878118E-010</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.47634021878118E-010</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.8772248583437E-010</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.8772248583437E-010</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.44909379942216E-010</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.44909379942216E-010</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.84142390933997E-010</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.84142390933997E-010</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.2783907959228E-011</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.2783907959228E-011</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.2783907959228E-011</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.2783907959228E-011</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.21683518490437E-011</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.73817010939059E-011</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.43861242917185E-011</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.22454689971108E-011</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.82670906159712E-012</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.29436290562918E-007</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="1885940"/>
-        <c:axId val="3454870"/>
+        <c:axId val="53440659"/>
+        <c:axId val="6660042"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1885940"/>
+        <c:axId val="53440659"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2004,15 +1911,15 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3454870"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="6660042"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="3454870"/>
+        <c:axId val="6660042"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2077,8 +1984,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1885940"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="53440659"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -2105,6 +2012,359 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SensibilityCoeficientsVariables</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="1a237e"/>
+            </a:solidFill>
+            <a:ln w="36000">
+              <a:solidFill>
+                <a:srgbClr val="1a237e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="30"/>
+            <c:invertIfNegative val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="e64a19"/>
+              </a:solidFill>
+              <a:ln w="36000">
+                <a:solidFill>
+                  <a:srgbClr val="e64a19"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="30"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$A$2:$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$2:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="54828504"/>
+        <c:axId val="64112024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="54828504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="600" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Bitstream Vera Serif"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64112024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="64112024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Contribution to the Standard Combined Uncertainty / K⁻¹</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="54828504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2196,11 +2456,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="29058050"/>
-        <c:axId val="71063412"/>
+        <c:axId val="50539411"/>
+        <c:axId val="13083256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="29058050"/>
+        <c:axId val="50539411"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2256,7 +2516,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71063412"/>
+        <c:crossAx val="13083256"/>
         <c:crosses val="min"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2264,7 +2524,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71063412"/>
+        <c:axId val="13083256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80.04"/>
@@ -2322,7 +2582,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29058050"/>
+        <c:crossAx val="50539411"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2360,9 +2620,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>716400</xdr:colOff>
+      <xdr:colOff>716040</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
+      <xdr:rowOff>64440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2371,7 +2631,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6526080" y="2303640"/>
-        <a:ext cx="11258640" cy="5596920"/>
+        <a:ext cx="11258280" cy="5596560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2388,6 +2648,41 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>48960</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>148320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>716040</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>64440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6526080" y="2303640"/>
+        <a:ext cx="11258280" cy="5596560"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>189360</xdr:colOff>
       <xdr:row>13</xdr:row>
@@ -2395,18 +2690,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>286200</xdr:colOff>
+      <xdr:colOff>285840</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>127800</xdr:rowOff>
+      <xdr:rowOff>127440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="2" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="189360" y="2153520"/>
-        <a:ext cx="18791280" cy="8378280"/>
+        <a:ext cx="18790920" cy="8377920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2426,8 +2721,8 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3136,8 +3431,8 @@
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D10" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S51" activeCellId="0" sqref="S51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3556,9 +3851,431 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.78"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>7.49878767599807E-008</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <f aca="false">SQRT(SUMSQ($B$2:B2))/$D$2</f>
+        <v>0.57934197923827</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <f aca="false">SQRT(SUMSQ(B2:B31))</f>
+        <v>1.29436290562918E-007</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>7.49878767599807E-008</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <f aca="false">SQRT(SUMSQ($B$2:B3))/$D$2</f>
+        <v>0.819313284290834</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>5.63818622255494E-008</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <f aca="false">SQRT(SUMSQ($B$2:B4))/$D$2</f>
+        <v>0.927910380376601</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>4.79922411263876E-008</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <f aca="false">SQRT(SUMSQ($B$2:B5))/$D$2</f>
+        <v>0.999247037529383</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>3.74939383799903E-009</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <f aca="false">SQRT(SUMSQ($B$2:B6))/$D$2</f>
+        <v>0.999666811909607</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1.53068362463885E-009</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <f aca="false">SQRT(SUMSQ($B$2:B7))/$D$2</f>
+        <v>0.999736757170221</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1.53068362463885E-009</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <f aca="false">SQRT(SUMSQ($B$2:B8))/$D$2</f>
+        <v>0.999806697537549</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1.53068362463885E-009</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <f aca="false">SQRT(SUMSQ($B$2:B9))/$D$2</f>
+        <v>0.999876633012619</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>1.53068362463885E-009</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <f aca="false">SQRT(SUMSQ($B$2:B10))/$D$2</f>
+        <v>0.999946563596457</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>6.43367036980871E-010</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <f aca="false">SQRT(SUMSQ($B$2:B11))/$D$2</f>
+        <v>0.999958917267279</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>6.43367036980871E-010</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <f aca="false">SQRT(SUMSQ($B$2:B12))/$D$2</f>
+        <v>0.999971270785482</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>5.47634021878118E-010</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <f aca="false">SQRT(SUMSQ($B$2:B13))/$D$2</f>
+        <v>0.999980221326005</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>5.47634021878118E-010</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <f aca="false">SQRT(SUMSQ($B$2:B14))/$D$2</f>
+        <v>0.999989171786416</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>2.8772248583437E-010</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <f aca="false">SQRT(SUMSQ($B$2:B15))/$D$2</f>
+        <v>0.999991642427515</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>2.8772248583437E-010</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <f aca="false">SQRT(SUMSQ($B$2:B16))/$D$2</f>
+        <v>0.999994113062509</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>2.44909379942216E-010</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <f aca="false">SQRT(SUMSQ($B$2:B17))/$D$2</f>
+        <v>0.999995903136133</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>2.44909379942216E-010</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <f aca="false">SQRT(SUMSQ($B$2:B18))/$D$2</f>
+        <v>0.999997693206552</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>1.84142390933997E-010</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <f aca="false">SQRT(SUMSQ($B$2:B19))/$D$2</f>
+        <v>0.999998705173261</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>1.84142390933997E-010</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <f aca="false">SQRT(SUMSQ($B$2:B20))/$D$2</f>
+        <v>0.999999717138945</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>4.2783907959228E-011</v>
+      </c>
+      <c r="C21" s="4" t="n">
+        <f aca="false">SQRT(SUMSQ($B$2:B21))/$D$2</f>
+        <v>0.999999771767398</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>4.2783907959228E-011</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <f aca="false">SQRT(SUMSQ($B$2:B22))/$D$2</f>
+        <v>0.999999826395848</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>4.2783907959228E-011</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <f aca="false">SQRT(SUMSQ($B$2:B23))/$D$2</f>
+        <v>0.999999881024295</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>4.2783907959228E-011</v>
+      </c>
+      <c r="C24" s="4" t="n">
+        <f aca="false">SQRT(SUMSQ($B$2:B24))/$D$2</f>
+        <v>0.999999935652739</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>3.21683518490437E-011</v>
+      </c>
+      <c r="C25" s="4" t="n">
+        <f aca="false">SQRT(SUMSQ($B$2:B25))/$D$2</f>
+        <v>0.999999966535458</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>2.73817010939059E-011</v>
+      </c>
+      <c r="C26" s="4" t="n">
+        <f aca="false">SQRT(SUMSQ($B$2:B26))/$D$2</f>
+        <v>0.999999988911267</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>1.43861242917185E-011</v>
+      </c>
+      <c r="C27" s="4" t="n">
+        <f aca="false">SQRT(SUMSQ($B$2:B27))/$D$2</f>
+        <v>0.999999995087811</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>1.22454689971108E-011</v>
+      </c>
+      <c r="C28" s="4" t="n">
+        <f aca="false">SQRT(SUMSQ($B$2:B28))/$D$2</f>
+        <v>0.999999999562972</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>3.82670906159712E-012</v>
+      </c>
+      <c r="C29" s="4" t="n">
+        <f aca="false">SQRT(SUMSQ($B$2:B29))/$D$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4" t="n">
+        <f aca="false">SQRT(SUMSQ($B$2:B30))/$D$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4" t="n">
+        <f aca="false">SQRT(SUMSQ($B$2:B31))/$D$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="9" t="n">
+        <v>1.29436290562918E-007</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -3638,9 +4355,9 @@
         <f aca="false">Data!D2</f>
         <v>8.3125E-008</v>
       </c>
-      <c r="I2" s="16" t="n">
-        <f aca="false">Weights!B5</f>
-        <v>4.79922411263876E-008</v>
+      <c r="I2" s="16" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>93</v>
@@ -3673,9 +4390,9 @@
         <f aca="false">Data!D2</f>
         <v>8.3125E-008</v>
       </c>
-      <c r="I3" s="21" t="n">
-        <f aca="false">Weights!B5</f>
-        <v>4.79922411263876E-008</v>
+      <c r="I3" s="21" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J3" s="22" t="s">
         <v>93</v>
@@ -3708,9 +4425,9 @@
         <f aca="false">Data!D3</f>
         <v>19.53125</v>
       </c>
-      <c r="I4" s="16" t="n">
-        <f aca="false">Weights!B4</f>
-        <v>5.63818622255494E-008</v>
+      <c r="I4" s="16" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>93</v>
@@ -3743,9 +4460,9 @@
         <f aca="false">Data!D3</f>
         <v>19.53125</v>
       </c>
-      <c r="I5" s="21" t="n">
-        <f aca="false">Weights!B4</f>
-        <v>5.63818622255494E-008</v>
+      <c r="I5" s="21" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J5" s="22" t="s">
         <v>93</v>
@@ -3778,9 +4495,9 @@
         <f aca="false">Data!D4</f>
         <v>-0.0001298828125</v>
       </c>
-      <c r="I6" s="16" t="n">
-        <f aca="false">Weights!B6</f>
-        <v>3.74939383799903E-009</v>
+      <c r="I6" s="16" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>93</v>
@@ -3813,9 +4530,9 @@
         <f aca="false">Data!D4</f>
         <v>-0.0001298828125</v>
       </c>
-      <c r="I7" s="21" t="n">
-        <f aca="false">Weights!B6</f>
-        <v>3.74939383799903E-009</v>
+      <c r="I7" s="21" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J7" s="22" t="s">
         <v>93</v>
@@ -3848,9 +4565,9 @@
         <f aca="false">Data!D5</f>
         <v>-2.59765625E-007</v>
       </c>
-      <c r="I8" s="16" t="n">
-        <f aca="false">Weights!B2</f>
-        <v>7.49878767599807E-008</v>
+      <c r="I8" s="16" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J8" s="17" t="s">
         <v>93</v>
@@ -3883,9 +4600,9 @@
         <f aca="false">Data!D5</f>
         <v>-2.59765625E-007</v>
       </c>
-      <c r="I9" s="21" t="n">
-        <f aca="false">Weights!B3</f>
-        <v>7.49878767599807E-008</v>
+      <c r="I9" s="21" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J9" s="22" t="s">
         <v>93</v>
@@ -3918,9 +4635,9 @@
         <f aca="false">Data!D6</f>
         <v>2.59765625E-007</v>
       </c>
-      <c r="I10" s="16" t="n">
-        <f aca="false">Weights!B3</f>
-        <v>7.49878767599807E-008</v>
+      <c r="I10" s="16" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J10" s="17" t="s">
         <v>93</v>
@@ -3953,9 +4670,9 @@
         <f aca="false">Data!D6</f>
         <v>2.59765625E-007</v>
       </c>
-      <c r="I11" s="21" t="n">
-        <f aca="false">Weights!B3</f>
-        <v>7.49878767599807E-008</v>
+      <c r="I11" s="21" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J11" s="22" t="s">
         <v>93</v>
@@ -3986,9 +4703,9 @@
       <c r="H12" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="21" t="n">
-        <f aca="false">SUM(Weights!B7:B31)</f>
-        <v>1.01994291168248E-008</v>
+      <c r="I12" s="21" t="e">
+        <f aca="false">SUM(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J12" s="22" t="s">
         <v>93</v>
@@ -4055,14 +4772,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AB23" activeCellId="0" sqref="AB23"/>
     </sheetView>
   </sheetViews>

--- a/code/graphs.xlsx
+++ b/code/graphs.xlsx
@@ -1,21 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaled\Documents\GitHub\ThermalExpansionUncertainty\code\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CC7D6B-C96F-436D-9260-D42000556666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Weights" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Weights_2" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Uncertainty Budget" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Sheet4" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Weights" sheetId="2" r:id="rId2"/>
+    <sheet name="Weights_2" sheetId="3" r:id="rId3"/>
+    <sheet name="Uncertainty Budget" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -24,171 +40,171 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="123">
-  <si>
-    <t xml:space="preserve">SensibilityCoeficientsVariables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SensibilityCoeficients</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contributions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lambda/(2*L_0*(T - T_0))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lambda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P/(2*L_0*(T - T_0))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-P*lambda/(2*L_0**2*(T - T_0))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-P*lambda/(2*L_0*(T - T_0)**2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P*lambda/(2*L_0*(T - T_0)**2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P, P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P, lambda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125/(L_0**2*(T - T_0)**2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P, L_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.625*lambda**2/(L_0**4*(T - T_0)**2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P, T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.625*lambda**2/(L_0**2*(T - T_0)**4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P, T_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lambda, P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lambda, lambda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lambda, L_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.625*P**2/(L_0**4*(T - T_0)**2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lambda, T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.625*P**2/(L_0**2*(T - T_0)**4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lambda, T_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L_0, P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125*lambda**2/(L_0**4*(T - T_0)**2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L_0, lambda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125*P**2/(L_0**4*(T - T_0)**2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L_0, L_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0*P**2*lambda**2/(L_0**6*(T - T_0)**2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L_0, T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.625*P**2*lambda**2/(L_0**4*(T - T_0)**4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L_0, T_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T, P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125*lambda**2/(L_0**2*(T - T_0)**4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T, lambda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125*P**2/(L_0**2*(T - T_0)**4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T, L_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T, T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0*P**2*lambda**2/(L_0**2*(T - T_0)**6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T, T_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_0, P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_0, lambda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_0, L_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_0, T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_0, T_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acumulated Percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="123">
+  <si>
+    <t>SensibilityCoeficientsVariables</t>
+  </si>
+  <si>
+    <t>SensibilityCoeficients</t>
+  </si>
+  <si>
+    <t>Evaluation</t>
+  </si>
+  <si>
+    <t>Terms</t>
+  </si>
+  <si>
+    <t>Contributions</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>lambda/(2*L_0*(T - T_0))</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>P/(2*L_0*(T - T_0))</t>
+  </si>
+  <si>
+    <t>L_0</t>
+  </si>
+  <si>
+    <t>-P*lambda/(2*L_0**2*(T - T_0))</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>-P*lambda/(2*L_0*(T - T_0)**2)</t>
+  </si>
+  <si>
+    <t>T_0</t>
+  </si>
+  <si>
+    <t>P*lambda/(2*L_0*(T - T_0)**2)</t>
+  </si>
+  <si>
+    <t>P, P</t>
+  </si>
+  <si>
+    <t>P, lambda</t>
+  </si>
+  <si>
+    <t>0.125/(L_0**2*(T - T_0)**2)</t>
+  </si>
+  <si>
+    <t>P, L_0</t>
+  </si>
+  <si>
+    <t>0.625*lambda**2/(L_0**4*(T - T_0)**2)</t>
+  </si>
+  <si>
+    <t>P, T</t>
+  </si>
+  <si>
+    <t>0.625*lambda**2/(L_0**2*(T - T_0)**4)</t>
+  </si>
+  <si>
+    <t>P, T_0</t>
+  </si>
+  <si>
+    <t>lambda, P</t>
+  </si>
+  <si>
+    <t>lambda, lambda</t>
+  </si>
+  <si>
+    <t>lambda, L_0</t>
+  </si>
+  <si>
+    <t>0.625*P**2/(L_0**4*(T - T_0)**2)</t>
+  </si>
+  <si>
+    <t>lambda, T</t>
+  </si>
+  <si>
+    <t>0.625*P**2/(L_0**2*(T - T_0)**4)</t>
+  </si>
+  <si>
+    <t>lambda, T_0</t>
+  </si>
+  <si>
+    <t>L_0, P</t>
+  </si>
+  <si>
+    <t>0.125*lambda**2/(L_0**4*(T - T_0)**2)</t>
+  </si>
+  <si>
+    <t>L_0, lambda</t>
+  </si>
+  <si>
+    <t>0.125*P**2/(L_0**4*(T - T_0)**2)</t>
+  </si>
+  <si>
+    <t>L_0, L_0</t>
+  </si>
+  <si>
+    <t>2.0*P**2*lambda**2/(L_0**6*(T - T_0)**2)</t>
+  </si>
+  <si>
+    <t>L_0, T</t>
+  </si>
+  <si>
+    <t>0.625*P**2*lambda**2/(L_0**4*(T - T_0)**4)</t>
+  </si>
+  <si>
+    <t>L_0, T_0</t>
+  </si>
+  <si>
+    <t>T, P</t>
+  </si>
+  <si>
+    <t>0.125*lambda**2/(L_0**2*(T - T_0)**4)</t>
+  </si>
+  <si>
+    <t>T, lambda</t>
+  </si>
+  <si>
+    <t>0.125*P**2/(L_0**2*(T - T_0)**4)</t>
+  </si>
+  <si>
+    <t>T, L_0</t>
+  </si>
+  <si>
+    <t>T, T</t>
+  </si>
+  <si>
+    <t>2.0*P**2*lambda**2/(L_0**2*(T - T_0)**6)</t>
+  </si>
+  <si>
+    <t>T, T_0</t>
+  </si>
+  <si>
+    <t>T_0, P</t>
+  </si>
+  <si>
+    <t>T_0, lambda</t>
+  </si>
+  <si>
+    <t>T_0, L_0</t>
+  </si>
+  <si>
+    <t>T_0, T</t>
+  </si>
+  <si>
+    <t>T_0, T_0</t>
+  </si>
+  <si>
+    <t>Acumulated Percentage</t>
+  </si>
+  <si>
+    <t>uc</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <r>
@@ -198,7 +214,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">T</t>
+      <t>T</t>
     </r>
     <r>
       <rPr>
@@ -208,11 +224,11 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">λ</t>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>λ</t>
   </si>
   <si>
     <r>
@@ -222,7 +238,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">L</t>
+      <t>L</t>
     </r>
     <r>
       <rPr>
@@ -232,11 +248,11 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Weight Graph of Contributions to the Standard Combined Uncertainty of the Coefficient of Thermal Expansion</t>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>Weight Graph of Contributions to the Standard Combined Uncertainty of the Coefficient of Thermal Expansion</t>
   </si>
   <si>
     <r>
@@ -246,7 +262,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">T, T</t>
+      <t>T, T</t>
     </r>
     <r>
       <rPr>
@@ -256,7 +272,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
   </si>
   <si>
@@ -267,7 +283,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">T</t>
+      <t>T</t>
     </r>
     <r>
       <rPr>
@@ -277,7 +293,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -286,7 +302,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">, T</t>
+      <t>, T</t>
     </r>
   </si>
   <si>
@@ -297,7 +313,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">T</t>
+      <t>T</t>
     </r>
     <r>
       <rPr>
@@ -307,7 +323,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -316,7 +332,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">, T</t>
+      <t>, T</t>
     </r>
     <r>
       <rPr>
@@ -326,11 +342,11 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">λ, T</t>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>λ, T</t>
   </si>
   <si>
     <r>
@@ -340,7 +356,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">λ, T</t>
+      <t>λ, T</t>
     </r>
     <r>
       <rPr>
@@ -350,7 +366,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
   </si>
   <si>
@@ -361,7 +377,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">P, T</t>
+      <t>P, T</t>
     </r>
     <r>
       <rPr>
@@ -371,11 +387,11 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">T, λ</t>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>T, λ</t>
   </si>
   <si>
     <r>
@@ -385,7 +401,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">T</t>
+      <t>T</t>
     </r>
     <r>
       <rPr>
@@ -395,7 +411,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -404,7 +420,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">, λ</t>
+      <t>, λ</t>
     </r>
   </si>
   <si>
@@ -415,7 +431,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">T</t>
+      <t>T</t>
     </r>
     <r>
       <rPr>
@@ -425,7 +441,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -434,14 +450,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">, P</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">P, λ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">λ, P</t>
+      <t>, P</t>
+    </r>
+  </si>
+  <si>
+    <t>P, λ</t>
+  </si>
+  <si>
+    <t>λ, P</t>
   </si>
   <si>
     <r>
@@ -451,7 +467,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">L</t>
+      <t>L</t>
     </r>
     <r>
       <rPr>
@@ -461,7 +477,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -470,7 +486,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">, T</t>
+      <t>, T</t>
     </r>
   </si>
   <si>
@@ -481,7 +497,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">L</t>
+      <t>L</t>
     </r>
     <r>
       <rPr>
@@ -491,7 +507,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -500,7 +516,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">, T</t>
+      <t>, T</t>
     </r>
     <r>
       <rPr>
@@ -510,7 +526,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
   </si>
   <si>
@@ -521,7 +537,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">T, L</t>
+      <t>T, L</t>
     </r>
     <r>
       <rPr>
@@ -531,7 +547,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
   </si>
   <si>
@@ -542,7 +558,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">T</t>
+      <t>T</t>
     </r>
     <r>
       <rPr>
@@ -552,7 +568,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -561,7 +577,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">, L</t>
+      <t>, L</t>
     </r>
     <r>
       <rPr>
@@ -571,7 +587,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
   </si>
   <si>
@@ -582,18 +598,18 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">λ, L</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>λ, L</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <vertAlign val="subscript"/>
         <sz val="10"/>
         <rFont val="Bitstream Vera Serif"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
   </si>
   <si>
@@ -604,18 +620,18 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">P, L</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>P, L</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <vertAlign val="subscript"/>
         <sz val="10"/>
         <rFont val="Bitstream Vera Serif"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
   </si>
   <si>
@@ -626,7 +642,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">L</t>
+      <t>L</t>
     </r>
     <r>
       <rPr>
@@ -636,7 +652,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -645,7 +661,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">, λ</t>
+      <t>, λ</t>
     </r>
   </si>
   <si>
@@ -656,7 +672,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">L</t>
+      <t>L</t>
     </r>
     <r>
       <rPr>
@@ -666,7 +682,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -675,7 +691,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">, P</t>
+      <t>, P</t>
     </r>
   </si>
   <si>
@@ -686,7 +702,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">L</t>
+      <t>L</t>
     </r>
     <r>
       <rPr>
@@ -696,7 +712,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -705,7 +721,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">, L</t>
+      <t>, L</t>
     </r>
     <r>
       <rPr>
@@ -715,45 +731,45 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">λ, λ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>λ, λ</t>
+  </si>
+  <si>
+    <t>Standard
  Combined</t>
   </si>
   <si>
-    <t xml:space="preserve">No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source of Uncertainty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input Magnitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source of Information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Original Uncertainty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type, Distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard Uncertainty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensibility Coeficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Degrees of Freedom</t>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Source of Uncertainty</t>
+  </si>
+  <si>
+    <t>Input Magnitude</t>
+  </si>
+  <si>
+    <t>Source of Information</t>
+  </si>
+  <si>
+    <t>Original Uncertainty</t>
+  </si>
+  <si>
+    <t>Type, Distribution</t>
+  </si>
+  <si>
+    <t>Standard Uncertainty</t>
+  </si>
+  <si>
+    <t>Sensibility Coeficient</t>
+  </si>
+  <si>
+    <t>Contribution</t>
+  </si>
+  <si>
+    <t>Degrees of Freedom</t>
   </si>
   <si>
     <r>
@@ -767,23 +783,23 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">N</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">∞</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1a</t>
+      <t>N</t>
+    </r>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>∞</t>
+  </si>
+  <si>
+    <t>1a</t>
   </si>
   <si>
     <r>
@@ -797,13 +813,13 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">N</t>
+      <t>N</t>
     </r>
     <r>
       <rPr>
@@ -816,10 +832,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Considerations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B, Rectangular</t>
+    <t>Considerations</t>
+  </si>
+  <si>
+    <t>B, Rectangular</t>
   </si>
   <si>
     <r>
@@ -838,14 +854,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">λ</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">532 nm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2a</t>
+      <t>λ</t>
+    </r>
+  </si>
+  <si>
+    <t>532 nm</t>
+  </si>
+  <si>
+    <t>2a</t>
   </si>
   <si>
     <r>
@@ -864,7 +880,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">λ</t>
+      <t>λ</t>
     </r>
     <r>
       <rPr>
@@ -888,13 +904,13 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">L</t>
+      <t>L</t>
     </r>
     <r>
       <rPr>
@@ -904,14 +920,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">80 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3a</t>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>80 mm</t>
+  </si>
+  <si>
+    <t>3a</t>
   </si>
   <si>
     <r>
@@ -925,13 +941,13 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">L</t>
+      <t>L</t>
     </r>
     <r>
       <rPr>
@@ -941,7 +957,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -965,13 +981,13 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">T</t>
+      <t>T</t>
     </r>
   </si>
   <si>
@@ -991,7 +1007,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">°</t>
+      <t>°</t>
     </r>
     <r>
       <rPr>
@@ -1000,11 +1016,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">C</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">4a</t>
+      <t>C</t>
+    </r>
+  </si>
+  <si>
+    <t>4a</t>
   </si>
   <si>
     <r>
@@ -1018,13 +1034,13 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">T</t>
+      <t>T</t>
     </r>
     <r>
       <rPr>
@@ -1048,13 +1064,13 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">T</t>
+      <t>T</t>
     </r>
     <r>
       <rPr>
@@ -1064,14 +1080,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">20 °C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5a</t>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>20 °C</t>
+  </si>
+  <si>
+    <t>5a</t>
   </si>
   <si>
     <r>
@@ -1085,13 +1101,13 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">T</t>
+      <t>T</t>
     </r>
     <r>
       <rPr>
@@ -1101,7 +1117,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -1114,54 +1130,50 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Higher Order Derivatives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Propagation of uncertainty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coefficient of thermal expansion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">u(α) =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length</t>
+    <t>Higher Order Derivatives</t>
+  </si>
+  <si>
+    <t>Propagation of uncertainty</t>
+  </si>
+  <si>
+    <t>Coefficient of thermal expansion</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>u(α) =</t>
+  </si>
+  <si>
+    <t>k =</t>
+  </si>
+  <si>
+    <t>U =</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Length</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="14">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00E+00"/>
-    <numFmt numFmtId="166" formatCode="0.00%"/>
-    <numFmt numFmtId="167" formatCode="General&quot; °C^-1&quot;"/>
-    <numFmt numFmtId="168" formatCode="&quot;± &quot;General"/>
-    <numFmt numFmtId="169" formatCode="General&quot; m&quot;"/>
-    <numFmt numFmtId="170" formatCode="General&quot; m^-1 °C^-1&quot;"/>
-    <numFmt numFmtId="171" formatCode="&quot;± &quot;General&quot; nm&quot;"/>
-    <numFmt numFmtId="172" formatCode="&quot;± &quot;General&quot; mm&quot;"/>
-    <numFmt numFmtId="173" formatCode="General&quot; °C&quot;"/>
-    <numFmt numFmtId="174" formatCode="General&quot; °C^-2&quot;"/>
-    <numFmt numFmtId="175" formatCode="&quot;± &quot;General&quot; °C&quot;"/>
-    <numFmt numFmtId="176" formatCode="0.000E+00&quot; °C^-1&quot;"/>
-    <numFmt numFmtId="177" formatCode="General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="10">
+    <numFmt numFmtId="164" formatCode="General&quot; °C^-1&quot;"/>
+    <numFmt numFmtId="165" formatCode="&quot;± &quot;General"/>
+    <numFmt numFmtId="166" formatCode="General&quot; m&quot;"/>
+    <numFmt numFmtId="167" formatCode="General&quot; m^-1 °C^-1&quot;"/>
+    <numFmt numFmtId="168" formatCode="&quot;± &quot;General&quot; nm&quot;"/>
+    <numFmt numFmtId="169" formatCode="&quot;± &quot;General&quot; mm&quot;"/>
+    <numFmt numFmtId="170" formatCode="General&quot; °C&quot;"/>
+    <numFmt numFmtId="171" formatCode="General&quot; °C^-2&quot;"/>
+    <numFmt numFmtId="172" formatCode="&quot;± &quot;General&quot; °C&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.000E+00&quot; °C^-1&quot;"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1169,22 +1181,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1200,7 +1197,6 @@
       <vertAlign val="subscript"/>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1214,11 +1210,10 @@
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <vertAlign val="subscript"/>
       <sz val="10"/>
       <name val="Bitstream Vera Serif"/>
@@ -1226,25 +1221,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="6"/>
-      <color rgb="FF000000"/>
-      <name val="Bitstream Vera Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
+      <i/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1253,7 +1230,6 @@
     <font>
       <sz val="10"/>
       <name val="DejaVu Sans"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1275,18 +1251,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="22"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="26"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1311,290 +1277,296 @@
         <bgColor rgb="FFFFFF99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="63">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="44">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="168" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="169" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="172" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1653,18 +1625,37 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1685,11 +1676,11 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="1a237e"/>
+              <a:srgbClr val="1A237E"/>
             </a:solidFill>
             <a:ln w="36000">
               <a:solidFill>
-                <a:srgbClr val="1a237e"/>
+                <a:srgbClr val="1A237E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1698,33 +1689,41 @@
           <c:dPt>
             <c:idx val="30"/>
             <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="e64a19"/>
+                <a:srgbClr val="E64A19"/>
               </a:solidFill>
               <a:ln w="36000">
                 <a:solidFill>
-                  <a:srgbClr val="e64a19"/>
+                  <a:srgbClr val="E64A19"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6428-46AF-A650-2F3FC9CFF381}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:spPr/>
               <c:txPr>
                 <a:bodyPr wrap="none"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                       <a:solidFill>
                         <a:srgbClr val="000000"/>
                       </a:solidFill>
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -1733,20 +1732,33 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator> </c:separator>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-6428-46AF-A650-2F3FC9CFF381}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1755,8 +1767,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1764,9 +1777,10 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Data!$A$2:$A$32</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1858,11 +1872,8 @@
                 <c:pt idx="29">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1870,12 +1881,114 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6428-46AF-A650-2F3FC9CFF381}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
         <c:axId val="53440659"/>
         <c:axId val="6660042"/>
       </c:barChart>
@@ -1893,7 +2006,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -1902,13 +2015,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="600" spc="-1" strike="noStrike">
+              <a:defRPr sz="600" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Bitstream Vera Serif"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="6660042"/>
@@ -1932,7 +2046,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+                  <a:defRPr lang="en-US" sz="1800" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1940,7 +2054,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-US" sz="1800" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1966,7 +2080,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -1975,13 +2089,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
+              <a:defRPr sz="1600" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="53440659"/>
@@ -1992,32 +2107,41 @@
         <a:noFill/>
         <a:ln w="0">
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -2038,11 +2162,11 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="1a237e"/>
+              <a:srgbClr val="1A237E"/>
             </a:solidFill>
             <a:ln w="36000">
               <a:solidFill>
-                <a:srgbClr val="1a237e"/>
+                <a:srgbClr val="1A237E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2051,33 +2175,41 @@
           <c:dPt>
             <c:idx val="30"/>
             <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="e64a19"/>
+                <a:srgbClr val="E64A19"/>
               </a:solidFill>
               <a:ln w="36000">
                 <a:solidFill>
-                  <a:srgbClr val="e64a19"/>
+                  <a:srgbClr val="E64A19"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C6A2-42F3-A50A-A68BADA85E3E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:spPr/>
               <c:txPr>
                 <a:bodyPr wrap="none"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                       <a:solidFill>
                         <a:srgbClr val="000000"/>
                       </a:solidFill>
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -2086,20 +2218,33 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator> </c:separator>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-C6A2-42F3-A50A-A68BADA85E3E}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2108,8 +2253,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2117,9 +2263,10 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Data!$A$2:$A$32</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2211,11 +2358,8 @@
                 <c:pt idx="29">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2223,12 +2367,114 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C6A2-42F3-A50A-A68BADA85E3E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
         <c:axId val="54828504"/>
         <c:axId val="64112024"/>
       </c:barChart>
@@ -2246,7 +2492,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -2255,13 +2501,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="600" spc="-1" strike="noStrike">
+              <a:defRPr sz="600" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Bitstream Vera Serif"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="64112024"/>
@@ -2285,7 +2532,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+                  <a:defRPr lang="en-US" sz="1800" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2293,7 +2540,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-US" sz="1800" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2319,7 +2566,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -2328,13 +2575,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
+              <a:defRPr sz="1600" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="54828504"/>
@@ -2345,32 +2593,41 @@
         <a:noFill/>
         <a:ln w="0">
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -2378,12 +2635,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="141a55"/>
-            </a:solidFill>
             <a:ln w="64800">
               <a:solidFill>
-                <a:srgbClr val="141a55"/>
+                <a:srgbClr val="141A55"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2392,15 +2646,23 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2409,8 +2671,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2418,9 +2681,10 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet4!$A$2:$A$3</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
@@ -2428,8 +2692,8 @@
                 <c:pt idx="1">
                   <c:v>60</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2441,13 +2705,26 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80.033</c:v>
+                  <c:v>80.033000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F651-44E1-BC2B-74A980286CED}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln w="0">
@@ -2455,7 +2732,7 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="0"/>
+        <c:smooth val="0"/>
         <c:axId val="50539411"/>
         <c:axId val="13083256"/>
       </c:lineChart>
@@ -2473,12 +2750,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="2600" spc="-1" strike="noStrike">
+                  <a:defRPr sz="2600" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="2600" spc="-1" strike="noStrike">
+                  <a:rPr sz="2600" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Temperature  / °C</a:t>
@@ -2501,7 +2778,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -2510,10 +2787,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="2200" spc="-1" strike="noStrike">
+              <a:defRPr sz="2200" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="13083256"/>
@@ -2527,8 +2805,8 @@
         <c:axId val="13083256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="80.04"/>
-          <c:min val="79.99"/>
+          <c:max val="80.040000000000006"/>
+          <c:min val="79.989999999999995"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2539,12 +2817,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="2600" spc="-1" strike="noStrike">
+                  <a:defRPr sz="2600" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="2600" spc="-1" strike="noStrike">
+                  <a:rPr sz="2600" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Length / mm</a:t>
@@ -2567,7 +2845,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -2576,10 +2854,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="2200" spc="-1" strike="noStrike">
+              <a:defRPr sz="2200" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="50539411"/>
@@ -2590,27 +2869,33 @@
         <a:noFill/>
         <a:ln w="0">
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -2624,14 +2909,20 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>64440</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6526080" y="2303640"/>
-        <a:ext cx="11258280" cy="5596560"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2645,7 +2936,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -2659,14 +2950,20 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>64440</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6526080" y="2303640"/>
-        <a:ext cx="11258280" cy="5596560"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2680,7 +2977,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2694,14 +2991,20 @@
       <xdr:row>64</xdr:row>
       <xdr:rowOff>127440</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="189360" y="2153520"/>
-        <a:ext cx="18790920" cy="8377920"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2714,710 +3017,1001 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+    <sheetView topLeftCell="A4" zoomScale="131" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.67"/>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:7">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>8.3125E-008</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>2.30325520833333E-015</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <f aca="false">SQRT(E2)</f>
-        <v>4.79922411263876E-008</v>
-      </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="D2" s="2">
+        <v>8.3124999999999998E-8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2.3032552083333301E-15</v>
+      </c>
+      <c r="F2">
+        <f>SQRT(E2)</f>
+        <v>4.799224112638761E-8</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3">
         <v>19.53125</v>
       </c>
-      <c r="E3" s="3" t="n">
-        <v>3.17891438802083E-015</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <f aca="false">SQRT(E3)</f>
-        <v>5.63818622255494E-008</v>
-      </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="E3" s="2">
+        <v>8.9970906575520802E-14</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F2:F31" si="0">SQRT(E3)</f>
+        <v>2.9995150703992272E-7</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <v>-0.0001298828125</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>1.40579541524251E-017</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <f aca="false">SQRT(E4)</f>
-        <v>3.74939383799903E-009</v>
-      </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="D4">
+        <v>-1.2988281250000001E-4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.4057954152425101E-17</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>3.7493938379990304E-9</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <v>-2.59765625E-007</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>5.62318166097005E-015</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <f aca="false">SQRT(E5)</f>
-        <v>7.49878767599807E-008</v>
-      </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="D5" s="2">
+        <v>-2.5976562500000001E-7</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5.6231816609700501E-15</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>7.4987876759980681E-8</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="n">
-        <v>2.59765625E-007</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>5.62318166097005E-015</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <f aca="false">SQRT(E6)</f>
-        <v>7.49878767599807E-008</v>
-      </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="D6" s="2">
+        <v>2.5976562500000001E-7</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5.6231816609700501E-15</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>7.4987876759980681E-8</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" s="1" t="n">
-        <f aca="false">SQRT(E7)</f>
+      <c r="F7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <v>0.01220703125</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>3.39084201388889E-020</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <f aca="false">SQRT(E8)</f>
-        <v>1.84142390933997E-010</v>
-      </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="D8">
+        <v>1.220703125E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>9.5968967013889009E-19</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>9.7963751976886325E-10</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <v>2.69912719726563E-012</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>7.49757554796008E-022</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <f aca="false">SQRT(E9)</f>
-        <v>2.73817010939059E-011</v>
-      </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="D9" s="2">
+        <v>2.6991271972656301E-12</v>
+      </c>
+      <c r="E9" s="2">
+        <v>7.4975755479600804E-22</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>2.7381701093905908E-11</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <v>1.07965087890625E-017</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>2.99903021918403E-019</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <f aca="false">SQRT(E10)</f>
-        <v>5.47634021878118E-010</v>
-      </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="D10" s="2">
+        <v>1.0796508789062499E-17</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.9990302191840301E-19</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>5.4763402187811794E-10</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="1" t="n">
-        <v>1.07965087890625E-017</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>2.99903021918403E-019</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <f aca="false">SQRT(E11)</f>
-        <v>5.47634021878118E-010</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="D11" s="2">
+        <v>1.0796508789062499E-17</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.9990302191840301E-19</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>5.4763402187811794E-10</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="1" t="n">
-        <v>0.01220703125</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>3.39084201388889E-020</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <f aca="false">SQRT(E12)</f>
-        <v>1.84142390933997E-010</v>
-      </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="D12">
+        <v>1.220703125E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>9.5968967013889009E-19</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>9.7963751976886325E-10</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" s="1" t="n">
-        <f aca="false">SQRT(E13)</f>
+      <c r="F13">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14">
         <v>149011.611938477</v>
       </c>
-      <c r="E14" s="3" t="n">
-        <v>1.03480286068387E-021</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <f aca="false">SQRT(E14)</f>
-        <v>3.21683518490437E-011</v>
-      </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="E14" s="2">
+        <v>2.9287404484218998E-20</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1.7113563183691173E-10</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="1" t="n">
-        <v>0.596046447753906</v>
-      </c>
-      <c r="E15" s="3" t="n">
-        <v>4.13921144273546E-019</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <f aca="false">SQRT(E15)</f>
-        <v>6.43367036980871E-010</v>
-      </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="D15">
+        <v>0.59604644775390603</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1.17149617936876E-17</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>3.4227126367382348E-9</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="1" t="n">
-        <v>0.596046447753906</v>
-      </c>
-      <c r="E16" s="3" t="n">
-        <v>4.13921144273546E-019</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <f aca="false">SQRT(E16)</f>
-        <v>6.43367036980871E-010</v>
-      </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="D16">
+        <v>0.59604644775390603</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.17149617936876E-17</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>3.4227126367382348E-9</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="1" t="n">
-        <v>5.39825439453125E-013</v>
-      </c>
-      <c r="E17" s="3" t="n">
-        <v>1.49951510959201E-022</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <f aca="false">SQRT(E17)</f>
-        <v>1.22454689971108E-011</v>
-      </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="D17" s="2">
+        <v>5.3982543945312501E-13</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.49951510959201E-22</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1.2245468997110768E-11</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="1" t="n">
-        <v>29802.3223876953</v>
-      </c>
-      <c r="E18" s="3" t="n">
-        <v>2.06960572136773E-022</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <f aca="false">SQRT(E18)</f>
-        <v>1.43861242917185E-011</v>
-      </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="D18">
+        <v>29802.322387695302</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5.8574808968438099E-21</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>7.6534181231942435E-11</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="1" t="n">
-        <v>2.10869312286377E-005</v>
-      </c>
-      <c r="E19" s="3" t="n">
-        <v>1.46437022421095E-023</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <f aca="false">SQRT(E19)</f>
-        <v>3.82670906159712E-012</v>
-      </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="D19" s="2">
+        <v>2.10869312286377E-5</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.46437022421095E-23</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>3.8267090615971189E-12</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="1" t="n">
-        <v>2.63586640357971E-011</v>
-      </c>
-      <c r="E20" s="3" t="n">
-        <v>1.83046278026369E-021</v>
-      </c>
-      <c r="F20" s="1" t="n">
-        <f aca="false">SQRT(E20)</f>
-        <v>4.2783907959228E-011</v>
-      </c>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="D20" s="2">
+        <v>2.6358664035797101E-11</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.83046278026369E-21</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>4.2783907959227964E-11</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="1" t="n">
-        <v>2.63586640357971E-011</v>
-      </c>
-      <c r="E21" s="3" t="n">
-        <v>1.83046278026369E-021</v>
-      </c>
-      <c r="F21" s="1" t="n">
-        <f aca="false">SQRT(E21)</f>
-        <v>4.2783907959228E-011</v>
-      </c>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="D21" s="2">
+        <v>2.6358664035797101E-11</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1.83046278026369E-21</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>4.2783907959227964E-11</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="1" t="n">
-        <v>2.1593017578125E-018</v>
-      </c>
-      <c r="E22" s="3" t="n">
-        <v>5.99806043836806E-020</v>
-      </c>
-      <c r="F22" s="1" t="n">
-        <f aca="false">SQRT(E22)</f>
-        <v>2.44909379942216E-010</v>
-      </c>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="D22" s="2">
+        <v>2.1593017578124998E-18</v>
+      </c>
+      <c r="E22" s="2">
+        <v>5.9980604383680595E-20</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>2.4490937994221576E-10</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="D23">
         <v>0.119209289550781</v>
       </c>
-      <c r="E23" s="3" t="n">
-        <v>8.27842288547092E-020</v>
-      </c>
-      <c r="F23" s="1" t="n">
-        <f aca="false">SQRT(E23)</f>
-        <v>2.8772248583437E-010</v>
-      </c>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+      <c r="E23" s="2">
+        <v>2.3429923587375198E-18</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1.5306836246388474E-9</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="1" t="n">
-        <v>2.63586640357971E-011</v>
-      </c>
-      <c r="E24" s="3" t="n">
-        <v>1.83046278026369E-021</v>
-      </c>
-      <c r="F24" s="1" t="n">
-        <f aca="false">SQRT(E24)</f>
-        <v>4.2783907959228E-011</v>
-      </c>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="D24" s="2">
+        <v>2.6358664035797101E-11</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1.83046278026369E-21</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>4.2783907959227964E-11</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="1" t="n">
-        <v>3.37390899658203E-016</v>
-      </c>
-      <c r="E25" s="3" t="n">
-        <v>2.34299235873752E-018</v>
-      </c>
-      <c r="F25" s="1" t="n">
-        <f aca="false">SQRT(E25)</f>
-        <v>1.53068362463885E-009</v>
-      </c>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="D25" s="2">
+        <v>3.3739089965820302E-16</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2.3429923587375198E-18</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>1.5306836246388474E-9</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="1" t="n">
-        <v>3.37390899658203E-016</v>
-      </c>
-      <c r="E26" s="3" t="n">
-        <v>2.34299235873752E-018</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <f aca="false">SQRT(E26)</f>
-        <v>1.53068362463885E-009</v>
-      </c>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="D26" s="2">
+        <v>3.3739089965820302E-16</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2.3429923587375198E-18</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>1.5306836246388474E-9</v>
+      </c>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="1" t="n">
-        <v>2.1593017578125E-018</v>
-      </c>
-      <c r="E27" s="3" t="n">
-        <v>5.99806043836806E-020</v>
-      </c>
-      <c r="F27" s="1" t="n">
-        <f aca="false">SQRT(E27)</f>
-        <v>2.44909379942216E-010</v>
-      </c>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="D27" s="2">
+        <v>2.1593017578124998E-18</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5.9980604383680595E-20</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>2.4490937994221576E-10</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="1" t="n">
+      <c r="D28">
         <v>0.119209289550781</v>
       </c>
-      <c r="E28" s="3" t="n">
-        <v>8.27842288547092E-020</v>
-      </c>
-      <c r="F28" s="1" t="n">
-        <f aca="false">SQRT(E28)</f>
-        <v>2.8772248583437E-010</v>
-      </c>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+      <c r="E28" s="2">
+        <v>2.3429923587375198E-18</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>1.5306836246388474E-9</v>
+      </c>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="1" t="n">
-        <v>2.63586640357971E-011</v>
-      </c>
-      <c r="E29" s="3" t="n">
-        <v>1.83046278026369E-021</v>
-      </c>
-      <c r="F29" s="1" t="n">
-        <f aca="false">SQRT(E29)</f>
-        <v>4.2783907959228E-011</v>
-      </c>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+      <c r="D29" s="2">
+        <v>2.6358664035797101E-11</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1.83046278026369E-21</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>4.2783907959227964E-11</v>
+      </c>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="1" t="n">
-        <v>3.37390899658203E-016</v>
-      </c>
-      <c r="E30" s="3" t="n">
-        <v>2.34299235873752E-018</v>
-      </c>
-      <c r="F30" s="1" t="n">
-        <f aca="false">SQRT(E30)</f>
-        <v>1.53068362463885E-009</v>
-      </c>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+      <c r="D30" s="2">
+        <v>3.3739089965820302E-16</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2.3429923587375198E-18</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>1.5306836246388474E-9</v>
+      </c>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="1" t="n">
-        <v>3.37390899658203E-016</v>
-      </c>
-      <c r="E31" s="3" t="n">
-        <v>2.34299235873752E-018</v>
-      </c>
-      <c r="F31" s="1" t="n">
-        <f aca="false">SQRT(E31)</f>
-        <v>1.53068362463885E-009</v>
-      </c>
-      <c r="G31" s="4"/>
+      <c r="D31" s="2">
+        <v>3.3739089965820302E-16</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2.3429923587375198E-18</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>1.5306836246388474E-9</v>
+      </c>
+      <c r="G31" s="3"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3425,420 +4019,414 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.78"/>
+    <col min="1" max="1" width="36.21875" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" ht="15.6">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>7.49878767599807E-008</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B2))/$D$2</f>
-        <v>0.57934197923827</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <f aca="false">SQRT(SUMSQ(B2:B31))</f>
-        <v>1.29436290562918E-007</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="B2">
+        <v>7.4987876759980694E-8</v>
+      </c>
+      <c r="C2" s="3">
+        <f>SQRT(SUMSQ($B$2:B2))/$D$2</f>
+        <v>0.57934197923827035</v>
+      </c>
+      <c r="D2">
+        <f>SQRT(SUMSQ(B2:B31))</f>
+        <v>1.2943629056291786E-7</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" ht="15.6">
+      <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>7.49878767599807E-008</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B3))/$D$2</f>
-        <v>0.819313284290834</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="B3">
+        <v>7.4987876759980694E-8</v>
+      </c>
+      <c r="C3" s="3">
+        <f>SQRT(SUMSQ($B$2:B3))/$D$2</f>
+        <v>0.81931328429083405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>5.63818622255494E-008</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B4))/$D$2</f>
-        <v>0.927910380376601</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="B4">
+        <v>5.63818622255494E-8</v>
+      </c>
+      <c r="C4" s="3">
+        <f>SQRT(SUMSQ($B$2:B4))/$D$2</f>
+        <v>0.92791038037660112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>4.79922411263876E-008</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B5))/$D$2</f>
-        <v>0.999247037529383</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="B5">
+        <v>4.7992241126387597E-8</v>
+      </c>
+      <c r="C5" s="3">
+        <f>SQRT(SUMSQ($B$2:B5))/$D$2</f>
+        <v>0.99924703752938349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6">
+      <c r="A6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>3.74939383799903E-009</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B6))/$D$2</f>
-        <v>0.999666811909607</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="B6">
+        <v>3.7493938379990304E-9</v>
+      </c>
+      <c r="C6" s="3">
+        <f>SQRT(SUMSQ($B$2:B6))/$D$2</f>
+        <v>0.99966681190960738</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.8">
+      <c r="A7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>1.53068362463885E-009</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B7))/$D$2</f>
-        <v>0.999736757170221</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="B7">
+        <v>1.5306836246388501E-9</v>
+      </c>
+      <c r="C7" s="3">
+        <f>SQRT(SUMSQ($B$2:B7))/$D$2</f>
+        <v>0.99973675717022115</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:7" ht="15.6">
+      <c r="A8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>1.53068362463885E-009</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B8))/$D$2</f>
-        <v>0.999806697537549</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="B8">
+        <v>1.5306836246388501E-9</v>
+      </c>
+      <c r="C8" s="3">
+        <f>SQRT(SUMSQ($B$2:B8))/$D$2</f>
+        <v>0.99980669753754958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6">
+      <c r="A9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <v>1.53068362463885E-009</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B9))/$D$2</f>
-        <v>0.999876633012619</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="B9">
+        <v>1.5306836246388501E-9</v>
+      </c>
+      <c r="C9" s="3">
+        <f>SQRT(SUMSQ($B$2:B9))/$D$2</f>
+        <v>0.99987663301261975</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6">
+      <c r="A10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="1" t="n">
-        <v>1.53068362463885E-009</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B10))/$D$2</f>
-        <v>0.999946563596457</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="B10">
+        <v>1.5306836246388501E-9</v>
+      </c>
+      <c r="C10" s="3">
+        <f>SQRT(SUMSQ($B$2:B10))/$D$2</f>
+        <v>0.99994656359645773</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="1" t="n">
-        <v>6.43367036980871E-010</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B11))/$D$2</f>
-        <v>0.999958917267279</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+      <c r="B11">
+        <v>6.4336703698087097E-10</v>
+      </c>
+      <c r="C11" s="3">
+        <f>SQRT(SUMSQ($B$2:B11))/$D$2</f>
+        <v>0.99995891726727859</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.6">
+      <c r="A12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="1" t="n">
-        <v>6.43367036980871E-010</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B12))/$D$2</f>
-        <v>0.999971270785482</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+      <c r="B12">
+        <v>6.4336703698087097E-10</v>
+      </c>
+      <c r="C12" s="3">
+        <f>SQRT(SUMSQ($B$2:B12))/$D$2</f>
+        <v>0.99997127078548209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="1" t="n">
-        <v>5.47634021878118E-010</v>
-      </c>
-      <c r="C13" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B13))/$D$2</f>
-        <v>0.999980221326005</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="B13">
+        <v>5.4763402187811805E-10</v>
+      </c>
+      <c r="C13" s="3">
+        <f>SQRT(SUMSQ($B$2:B13))/$D$2</f>
+        <v>0.9999802213260055</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.6">
+      <c r="A14" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="1" t="n">
-        <v>5.47634021878118E-010</v>
-      </c>
-      <c r="C14" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B14))/$D$2</f>
-        <v>0.999989171786416</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+      <c r="B14">
+        <v>5.4763402187811805E-10</v>
+      </c>
+      <c r="C14" s="3">
+        <f>SQRT(SUMSQ($B$2:B14))/$D$2</f>
+        <v>0.99998917178641578</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="1" t="n">
-        <v>2.8772248583437E-010</v>
-      </c>
-      <c r="C15" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B15))/$D$2</f>
-        <v>0.999991642427515</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
+      <c r="B15">
+        <v>2.8772248583437002E-10</v>
+      </c>
+      <c r="C15" s="3">
+        <f>SQRT(SUMSQ($B$2:B15))/$D$2</f>
+        <v>0.99999164242751482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.6">
+      <c r="A16" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="1" t="n">
-        <v>2.8772248583437E-010</v>
-      </c>
-      <c r="C16" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B16))/$D$2</f>
-        <v>0.999994113062509</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
+      <c r="B16">
+        <v>2.8772248583437002E-10</v>
+      </c>
+      <c r="C16" s="3">
+        <f>SQRT(SUMSQ($B$2:B16))/$D$2</f>
+        <v>0.99999411306250963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="1" t="n">
-        <v>2.44909379942216E-010</v>
-      </c>
-      <c r="C17" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B17))/$D$2</f>
-        <v>0.999995903136133</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+      <c r="B17">
+        <v>2.4490937994221602E-10</v>
+      </c>
+      <c r="C17" s="3">
+        <f>SQRT(SUMSQ($B$2:B17))/$D$2</f>
+        <v>0.99999590313613307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.6">
+      <c r="A18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="1" t="n">
-        <v>2.44909379942216E-010</v>
-      </c>
-      <c r="C18" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B18))/$D$2</f>
-        <v>0.999997693206552</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
+      <c r="B18">
+        <v>2.4490937994221602E-10</v>
+      </c>
+      <c r="C18" s="3">
+        <f>SQRT(SUMSQ($B$2:B18))/$D$2</f>
+        <v>0.99999769320655196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="1" t="n">
-        <v>1.84142390933997E-010</v>
-      </c>
-      <c r="C19" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B19))/$D$2</f>
-        <v>0.999998705173261</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
+      <c r="B19">
+        <v>1.84142390933997E-10</v>
+      </c>
+      <c r="C19" s="3">
+        <f>SQRT(SUMSQ($B$2:B19))/$D$2</f>
+        <v>0.99999870517326062</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="1" t="n">
-        <v>1.84142390933997E-010</v>
-      </c>
-      <c r="C20" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B20))/$D$2</f>
-        <v>0.999999717138945</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
+      <c r="B20">
+        <v>1.84142390933997E-10</v>
+      </c>
+      <c r="C20" s="3">
+        <f>SQRT(SUMSQ($B$2:B20))/$D$2</f>
+        <v>0.99999971713894531</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.6">
+      <c r="A21" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="1" t="n">
-        <v>4.2783907959228E-011</v>
-      </c>
-      <c r="C21" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B21))/$D$2</f>
-        <v>0.999999771767398</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
+      <c r="B21">
+        <v>4.2783907959228003E-11</v>
+      </c>
+      <c r="C21" s="3">
+        <f>SQRT(SUMSQ($B$2:B21))/$D$2</f>
+        <v>0.99999977176739829</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.6">
+      <c r="A22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="1" t="n">
-        <v>4.2783907959228E-011</v>
-      </c>
-      <c r="C22" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B22))/$D$2</f>
-        <v>0.999999826395848</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
+      <c r="B22">
+        <v>4.2783907959228003E-11</v>
+      </c>
+      <c r="C22" s="3">
+        <f>SQRT(SUMSQ($B$2:B22))/$D$2</f>
+        <v>0.99999982639584817</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.6">
+      <c r="A23" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="1" t="n">
-        <v>4.2783907959228E-011</v>
-      </c>
-      <c r="C23" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B23))/$D$2</f>
-        <v>0.999999881024295</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
+      <c r="B23">
+        <v>4.2783907959228003E-11</v>
+      </c>
+      <c r="C23" s="3">
+        <f>SQRT(SUMSQ($B$2:B23))/$D$2</f>
+        <v>0.99999988102429516</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.6">
+      <c r="A24" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="1" t="n">
-        <v>4.2783907959228E-011</v>
-      </c>
-      <c r="C24" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B24))/$D$2</f>
-        <v>0.999999935652739</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
+      <c r="B24">
+        <v>4.2783907959228003E-11</v>
+      </c>
+      <c r="C24" s="3">
+        <f>SQRT(SUMSQ($B$2:B24))/$D$2</f>
+        <v>0.99999993565273926</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.4">
+      <c r="A25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="1" t="n">
-        <v>3.21683518490437E-011</v>
-      </c>
-      <c r="C25" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B25))/$D$2</f>
-        <v>0.999999966535458</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
+      <c r="B25">
+        <v>3.2168351849043702E-11</v>
+      </c>
+      <c r="C25" s="3">
+        <f>SQRT(SUMSQ($B$2:B25))/$D$2</f>
+        <v>0.99999996653545808</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.4">
+      <c r="A26" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="1" t="n">
-        <v>2.73817010939059E-011</v>
-      </c>
-      <c r="C26" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B26))/$D$2</f>
-        <v>0.999999988911267</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
+      <c r="B26">
+        <v>2.7381701093905898E-11</v>
+      </c>
+      <c r="C26" s="3">
+        <f>SQRT(SUMSQ($B$2:B26))/$D$2</f>
+        <v>0.9999999889112674</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.6">
+      <c r="A27" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="1" t="n">
-        <v>1.43861242917185E-011</v>
-      </c>
-      <c r="C27" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B27))/$D$2</f>
-        <v>0.999999995087811</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
+      <c r="B27">
+        <v>1.4386124291718501E-11</v>
+      </c>
+      <c r="C27" s="3">
+        <f>SQRT(SUMSQ($B$2:B27))/$D$2</f>
+        <v>0.9999999950878109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.6">
+      <c r="A28" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="1" t="n">
-        <v>1.22454689971108E-011</v>
-      </c>
-      <c r="C28" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B28))/$D$2</f>
-        <v>0.999999999562972</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
+      <c r="B28">
+        <v>1.22454689971108E-11</v>
+      </c>
+      <c r="C28" s="3">
+        <f>SQRT(SUMSQ($B$2:B28))/$D$2</f>
+        <v>0.99999999956297247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.6">
+      <c r="A29" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="1" t="n">
-        <v>3.82670906159712E-012</v>
-      </c>
-      <c r="C29" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B29))/$D$2</f>
+      <c r="B29">
+        <v>3.8267090615971197E-12</v>
+      </c>
+      <c r="C29" s="3">
+        <f>SQRT(SUMSQ($B$2:B29))/$D$2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30">
         <v>0</v>
       </c>
-      <c r="C30" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B30))/$D$2</f>
+      <c r="C30" s="3">
+        <f>SQRT(SUMSQ($B$2:B30))/$D$2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31">
         <v>0</v>
       </c>
-      <c r="C31" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B31))/$D$2</f>
+      <c r="C31" s="3">
+        <f>SQRT(SUMSQ($B$2:B31))/$D$2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:3" ht="26.4">
+      <c r="A32" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="9" t="n">
-        <v>1.29436290562918E-007</v>
+      <c r="B32" s="8">
+        <v>1.2943629056291799E-7</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3847,420 +4435,416 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.78"/>
+    <col min="1" max="1" width="36.21875" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" ht="15.6">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>7.49878767599807E-008</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B2))/$D$2</f>
-        <v>0.57934197923827</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <f aca="false">SQRT(SUMSQ(B2:B31))</f>
-        <v>1.29436290562918E-007</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="B2">
+        <v>7.4987876759980694E-8</v>
+      </c>
+      <c r="C2" s="3">
+        <f>SQRT(SUMSQ($B$2:B2))/$D$2</f>
+        <v>0.57934197923827035</v>
+      </c>
+      <c r="D2">
+        <f>SQRT(SUMSQ(B2:B31))</f>
+        <v>1.2943629056291786E-7</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" ht="15.6">
+      <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>7.49878767599807E-008</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B3))/$D$2</f>
-        <v>0.819313284290834</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="B3">
+        <v>7.4987876759980694E-8</v>
+      </c>
+      <c r="C3" s="3">
+        <f>SQRT(SUMSQ($B$2:B3))/$D$2</f>
+        <v>0.81931328429083405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>5.63818622255494E-008</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B4))/$D$2</f>
-        <v>0.927910380376601</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="B4">
+        <v>5.63818622255494E-8</v>
+      </c>
+      <c r="C4" s="3">
+        <f>SQRT(SUMSQ($B$2:B4))/$D$2</f>
+        <v>0.92791038037660112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>4.79922411263876E-008</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B5))/$D$2</f>
-        <v>0.999247037529383</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="B5">
+        <v>4.7992241126387597E-8</v>
+      </c>
+      <c r="C5" s="3">
+        <f>SQRT(SUMSQ($B$2:B5))/$D$2</f>
+        <v>0.99924703752938349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6">
+      <c r="A6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>3.74939383799903E-009</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B6))/$D$2</f>
-        <v>0.999666811909607</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="B6">
+        <v>3.7493938379990304E-9</v>
+      </c>
+      <c r="C6" s="3">
+        <f>SQRT(SUMSQ($B$2:B6))/$D$2</f>
+        <v>0.99966681190960738</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.8">
+      <c r="A7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>1.53068362463885E-009</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B7))/$D$2</f>
-        <v>0.999736757170221</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="B7">
+        <v>1.5306836246388501E-9</v>
+      </c>
+      <c r="C7" s="3">
+        <f>SQRT(SUMSQ($B$2:B7))/$D$2</f>
+        <v>0.99973675717022115</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:7" ht="15.6">
+      <c r="A8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>1.53068362463885E-009</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B8))/$D$2</f>
-        <v>0.999806697537549</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="B8">
+        <v>1.5306836246388501E-9</v>
+      </c>
+      <c r="C8" s="3">
+        <f>SQRT(SUMSQ($B$2:B8))/$D$2</f>
+        <v>0.99980669753754958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6">
+      <c r="A9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <v>1.53068362463885E-009</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B9))/$D$2</f>
-        <v>0.999876633012619</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="B9">
+        <v>1.5306836246388501E-9</v>
+      </c>
+      <c r="C9" s="3">
+        <f>SQRT(SUMSQ($B$2:B9))/$D$2</f>
+        <v>0.99987663301261975</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6">
+      <c r="A10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="1" t="n">
-        <v>1.53068362463885E-009</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B10))/$D$2</f>
-        <v>0.999946563596457</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="B10">
+        <v>1.5306836246388501E-9</v>
+      </c>
+      <c r="C10" s="3">
+        <f>SQRT(SUMSQ($B$2:B10))/$D$2</f>
+        <v>0.99994656359645773</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="1" t="n">
-        <v>6.43367036980871E-010</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B11))/$D$2</f>
-        <v>0.999958917267279</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+      <c r="B11">
+        <v>6.4336703698087097E-10</v>
+      </c>
+      <c r="C11" s="3">
+        <f>SQRT(SUMSQ($B$2:B11))/$D$2</f>
+        <v>0.99995891726727859</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.6">
+      <c r="A12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="1" t="n">
-        <v>6.43367036980871E-010</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B12))/$D$2</f>
-        <v>0.999971270785482</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+      <c r="B12">
+        <v>6.4336703698087097E-10</v>
+      </c>
+      <c r="C12" s="3">
+        <f>SQRT(SUMSQ($B$2:B12))/$D$2</f>
+        <v>0.99997127078548209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="1" t="n">
-        <v>5.47634021878118E-010</v>
-      </c>
-      <c r="C13" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B13))/$D$2</f>
-        <v>0.999980221326005</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="B13">
+        <v>5.4763402187811805E-10</v>
+      </c>
+      <c r="C13" s="3">
+        <f>SQRT(SUMSQ($B$2:B13))/$D$2</f>
+        <v>0.9999802213260055</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.6">
+      <c r="A14" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="1" t="n">
-        <v>5.47634021878118E-010</v>
-      </c>
-      <c r="C14" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B14))/$D$2</f>
-        <v>0.999989171786416</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+      <c r="B14">
+        <v>5.4763402187811805E-10</v>
+      </c>
+      <c r="C14" s="3">
+        <f>SQRT(SUMSQ($B$2:B14))/$D$2</f>
+        <v>0.99998917178641578</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="1" t="n">
-        <v>2.8772248583437E-010</v>
-      </c>
-      <c r="C15" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B15))/$D$2</f>
-        <v>0.999991642427515</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
+      <c r="B15">
+        <v>2.8772248583437002E-10</v>
+      </c>
+      <c r="C15" s="3">
+        <f>SQRT(SUMSQ($B$2:B15))/$D$2</f>
+        <v>0.99999164242751482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.6">
+      <c r="A16" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="1" t="n">
-        <v>2.8772248583437E-010</v>
-      </c>
-      <c r="C16" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B16))/$D$2</f>
-        <v>0.999994113062509</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
+      <c r="B16">
+        <v>2.8772248583437002E-10</v>
+      </c>
+      <c r="C16" s="3">
+        <f>SQRT(SUMSQ($B$2:B16))/$D$2</f>
+        <v>0.99999411306250963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="1" t="n">
-        <v>2.44909379942216E-010</v>
-      </c>
-      <c r="C17" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B17))/$D$2</f>
-        <v>0.999995903136133</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+      <c r="B17">
+        <v>2.4490937994221602E-10</v>
+      </c>
+      <c r="C17" s="3">
+        <f>SQRT(SUMSQ($B$2:B17))/$D$2</f>
+        <v>0.99999590313613307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.6">
+      <c r="A18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="1" t="n">
-        <v>2.44909379942216E-010</v>
-      </c>
-      <c r="C18" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B18))/$D$2</f>
-        <v>0.999997693206552</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
+      <c r="B18">
+        <v>2.4490937994221602E-10</v>
+      </c>
+      <c r="C18" s="3">
+        <f>SQRT(SUMSQ($B$2:B18))/$D$2</f>
+        <v>0.99999769320655196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="1" t="n">
-        <v>1.84142390933997E-010</v>
-      </c>
-      <c r="C19" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B19))/$D$2</f>
-        <v>0.999998705173261</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
+      <c r="B19">
+        <v>1.84142390933997E-10</v>
+      </c>
+      <c r="C19" s="3">
+        <f>SQRT(SUMSQ($B$2:B19))/$D$2</f>
+        <v>0.99999870517326062</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="1" t="n">
-        <v>1.84142390933997E-010</v>
-      </c>
-      <c r="C20" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B20))/$D$2</f>
-        <v>0.999999717138945</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
+      <c r="B20">
+        <v>1.84142390933997E-10</v>
+      </c>
+      <c r="C20" s="3">
+        <f>SQRT(SUMSQ($B$2:B20))/$D$2</f>
+        <v>0.99999971713894531</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.6">
+      <c r="A21" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="1" t="n">
-        <v>4.2783907959228E-011</v>
-      </c>
-      <c r="C21" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B21))/$D$2</f>
-        <v>0.999999771767398</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
+      <c r="B21">
+        <v>4.2783907959228003E-11</v>
+      </c>
+      <c r="C21" s="3">
+        <f>SQRT(SUMSQ($B$2:B21))/$D$2</f>
+        <v>0.99999977176739829</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.6">
+      <c r="A22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="1" t="n">
-        <v>4.2783907959228E-011</v>
-      </c>
-      <c r="C22" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B22))/$D$2</f>
-        <v>0.999999826395848</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
+      <c r="B22">
+        <v>4.2783907959228003E-11</v>
+      </c>
+      <c r="C22" s="3">
+        <f>SQRT(SUMSQ($B$2:B22))/$D$2</f>
+        <v>0.99999982639584817</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.6">
+      <c r="A23" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="1" t="n">
-        <v>4.2783907959228E-011</v>
-      </c>
-      <c r="C23" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B23))/$D$2</f>
-        <v>0.999999881024295</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
+      <c r="B23">
+        <v>4.2783907959228003E-11</v>
+      </c>
+      <c r="C23" s="3">
+        <f>SQRT(SUMSQ($B$2:B23))/$D$2</f>
+        <v>0.99999988102429516</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.6">
+      <c r="A24" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="1" t="n">
-        <v>4.2783907959228E-011</v>
-      </c>
-      <c r="C24" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B24))/$D$2</f>
-        <v>0.999999935652739</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
+      <c r="B24">
+        <v>4.2783907959228003E-11</v>
+      </c>
+      <c r="C24" s="3">
+        <f>SQRT(SUMSQ($B$2:B24))/$D$2</f>
+        <v>0.99999993565273926</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.4">
+      <c r="A25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="1" t="n">
-        <v>3.21683518490437E-011</v>
-      </c>
-      <c r="C25" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B25))/$D$2</f>
-        <v>0.999999966535458</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
+      <c r="B25">
+        <v>3.2168351849043702E-11</v>
+      </c>
+      <c r="C25" s="3">
+        <f>SQRT(SUMSQ($B$2:B25))/$D$2</f>
+        <v>0.99999996653545808</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.4">
+      <c r="A26" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="1" t="n">
-        <v>2.73817010939059E-011</v>
-      </c>
-      <c r="C26" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B26))/$D$2</f>
-        <v>0.999999988911267</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
+      <c r="B26">
+        <v>2.7381701093905898E-11</v>
+      </c>
+      <c r="C26" s="3">
+        <f>SQRT(SUMSQ($B$2:B26))/$D$2</f>
+        <v>0.9999999889112674</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.6">
+      <c r="A27" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="1" t="n">
-        <v>1.43861242917185E-011</v>
-      </c>
-      <c r="C27" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B27))/$D$2</f>
-        <v>0.999999995087811</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
+      <c r="B27">
+        <v>1.4386124291718501E-11</v>
+      </c>
+      <c r="C27" s="3">
+        <f>SQRT(SUMSQ($B$2:B27))/$D$2</f>
+        <v>0.9999999950878109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.6">
+      <c r="A28" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="1" t="n">
-        <v>1.22454689971108E-011</v>
-      </c>
-      <c r="C28" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B28))/$D$2</f>
-        <v>0.999999999562972</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
+      <c r="B28">
+        <v>1.22454689971108E-11</v>
+      </c>
+      <c r="C28" s="3">
+        <f>SQRT(SUMSQ($B$2:B28))/$D$2</f>
+        <v>0.99999999956297247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.6">
+      <c r="A29" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="1" t="n">
-        <v>3.82670906159712E-012</v>
-      </c>
-      <c r="C29" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B29))/$D$2</f>
+      <c r="B29">
+        <v>3.8267090615971197E-12</v>
+      </c>
+      <c r="C29" s="3">
+        <f>SQRT(SUMSQ($B$2:B29))/$D$2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30">
         <v>0</v>
       </c>
-      <c r="C30" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B30))/$D$2</f>
+      <c r="C30" s="3">
+        <f>SQRT(SUMSQ($B$2:B30))/$D$2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31">
         <v>0</v>
       </c>
-      <c r="C31" s="4" t="n">
-        <f aca="false">SQRT(SUMSQ($B$2:B31))/$D$2</f>
+      <c r="C31" s="3">
+        <f>SQRT(SUMSQ($B$2:B31))/$D$2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:3" ht="26.4">
+      <c r="A32" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="9" t="n">
-        <v>1.29436290562918E-007</v>
+      <c r="B32" s="8">
+        <v>1.2943629056291799E-7</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4269,503 +4853,895 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:N15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.77"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:14" ht="42.75" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="n">
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="15" t="n">
+      <c r="C2" s="14">
         <v>125</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="15" t="n">
-        <f aca="false">1/SQRT(3)</f>
-        <v>0.577350269189626</v>
-      </c>
-      <c r="H2" s="16" t="n">
-        <f aca="false">Data!D2</f>
-        <v>8.3125E-008</v>
-      </c>
-      <c r="I2" s="16" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J2" s="17" t="s">
+      <c r="G2" s="14">
+        <f>1/SQRT(3)</f>
+        <v>0.57735026918962584</v>
+      </c>
+      <c r="H2" s="15">
+        <f>Data!D2</f>
+        <v>8.3124999999999998E-8</v>
+      </c>
+      <c r="I2" s="15">
+        <f>Data!F2</f>
+        <v>4.799224112638761E-8</v>
+      </c>
+      <c r="J2" s="16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:14">
+      <c r="A3" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="20" t="n">
+      <c r="E3" s="19">
         <v>1</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="19" t="n">
-        <f aca="false">1/SQRT(3)</f>
-        <v>0.577350269189626</v>
-      </c>
-      <c r="H3" s="21" t="n">
-        <f aca="false">Data!D2</f>
-        <v>8.3125E-008</v>
-      </c>
-      <c r="I3" s="21" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J3" s="22" t="s">
+      <c r="G3" s="18">
+        <f>1/SQRT(3)</f>
+        <v>0.57735026918962584</v>
+      </c>
+      <c r="H3" s="20">
+        <f>Data!D2</f>
+        <v>8.3124999999999998E-8</v>
+      </c>
+      <c r="I3" s="42">
+        <f>Data!F2</f>
+        <v>4.799224112638761E-8</v>
+      </c>
+      <c r="J3" s="21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="n">
+    <row r="4" spans="1:14">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="23" t="n">
-        <f aca="false">5*10^(-9) /SQRT(3)</f>
-        <v>2.88675134594813E-009</v>
-      </c>
-      <c r="H4" s="24" t="n">
-        <f aca="false">Data!D3</f>
+      <c r="G4" s="22">
+        <f>5*10^(-9) /SQRT(3)</f>
+        <v>2.8867513459481292E-9</v>
+      </c>
+      <c r="H4" s="23">
+        <f>Data!D3</f>
         <v>19.53125</v>
       </c>
-      <c r="I4" s="16" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J4" s="17" t="s">
+      <c r="I4" s="15">
+        <f>Data!F3</f>
+        <v>2.9995150703992272E-7</v>
+      </c>
+      <c r="J4" s="16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:14">
+      <c r="A5" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="25" t="n">
+      <c r="E5" s="24">
         <v>5</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="26" t="n">
-        <f aca="false">5*10^(-9) /SQRT(3)</f>
-        <v>2.88675134594813E-009</v>
-      </c>
-      <c r="H5" s="27" t="n">
-        <f aca="false">Data!D3</f>
+      <c r="G5" s="25">
+        <f>5*10^(-9) /SQRT(3)</f>
+        <v>2.8867513459481292E-9</v>
+      </c>
+      <c r="H5" s="26">
+        <f>Data!D3</f>
         <v>19.53125</v>
       </c>
-      <c r="I5" s="21" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J5" s="22" t="s">
+      <c r="I5" s="42">
+        <f>Data!F3</f>
+        <v>2.9995150703992272E-7</v>
+      </c>
+      <c r="J5" s="21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="n">
+    <row r="6" spans="1:14" ht="15.6">
+      <c r="A6" s="13">
         <v>3</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="23" t="n">
-        <f aca="false">0.05*10^(-3) /SQRT(3)</f>
-        <v>2.88675134594813E-005</v>
-      </c>
-      <c r="H6" s="24" t="n">
-        <f aca="false">Data!D4</f>
-        <v>-0.0001298828125</v>
-      </c>
-      <c r="I6" s="16" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J6" s="17" t="s">
+      <c r="G6" s="22">
+        <f>0.05*10^(-3) /SQRT(3)</f>
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="H6" s="23">
+        <f>Data!D4</f>
+        <v>-1.2988281250000001E-4</v>
+      </c>
+      <c r="I6" s="15">
+        <f>Data!F4</f>
+        <v>3.7493938379990304E-9</v>
+      </c>
+      <c r="J6" s="16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:14" ht="15.6">
+      <c r="A7" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="28" t="n">
+      <c r="E7" s="27">
         <v>0.05</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="26" t="n">
-        <f aca="false">0.05*10^(-3) /SQRT(3)</f>
-        <v>2.88675134594813E-005</v>
-      </c>
-      <c r="H7" s="27" t="n">
-        <f aca="false">Data!D4</f>
-        <v>-0.0001298828125</v>
-      </c>
-      <c r="I7" s="21" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J7" s="22" t="s">
+      <c r="G7" s="25">
+        <f>0.05*10^(-3) /SQRT(3)</f>
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="H7" s="26">
+        <f>Data!D4</f>
+        <v>-1.2988281250000001E-4</v>
+      </c>
+      <c r="I7" s="42">
+        <f>Data!F4</f>
+        <v>3.7493938379990304E-9</v>
+      </c>
+      <c r="J7" s="21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="n">
+    <row r="8" spans="1:14" ht="13.8">
+      <c r="A8" s="13">
         <v>4</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="29" t="n">
-        <f aca="false">0.5 /SQRT(3)</f>
-        <v>0.288675134594813</v>
-      </c>
-      <c r="H8" s="30" t="n">
-        <f aca="false">Data!D5</f>
-        <v>-2.59765625E-007</v>
-      </c>
-      <c r="I8" s="16" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J8" s="17" t="s">
+      <c r="G8" s="28">
+        <f>0.5 /SQRT(3)</f>
+        <v>0.28867513459481292</v>
+      </c>
+      <c r="H8" s="29">
+        <f>Data!D5</f>
+        <v>-2.5976562500000001E-7</v>
+      </c>
+      <c r="I8" s="15">
+        <f>Data!F5</f>
+        <v>7.4987876759980681E-8</v>
+      </c>
+      <c r="J8" s="16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:14">
+      <c r="A9" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="31" t="n">
+      <c r="E9" s="30">
         <v>0.5</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="32" t="n">
-        <f aca="false">0.5 /SQRT(3)</f>
-        <v>0.288675134594813</v>
-      </c>
-      <c r="H9" s="33" t="n">
-        <f aca="false">Data!D5</f>
-        <v>-2.59765625E-007</v>
-      </c>
-      <c r="I9" s="21" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J9" s="22" t="s">
+      <c r="G9" s="31">
+        <f>0.5 /SQRT(3)</f>
+        <v>0.28867513459481292</v>
+      </c>
+      <c r="H9" s="32">
+        <f>Data!D5</f>
+        <v>-2.5976562500000001E-7</v>
+      </c>
+      <c r="I9" s="42">
+        <f>Data!F5</f>
+        <v>7.4987876759980681E-8</v>
+      </c>
+      <c r="J9" s="21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="n">
+    <row r="10" spans="1:14" ht="15.6">
+      <c r="A10" s="13">
         <v>5</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="29" t="n">
-        <f aca="false">0.5 /SQRT(3)</f>
-        <v>0.288675134594813</v>
-      </c>
-      <c r="H10" s="30" t="n">
-        <f aca="false">Data!D6</f>
-        <v>2.59765625E-007</v>
-      </c>
-      <c r="I10" s="16" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J10" s="17" t="s">
+      <c r="G10" s="28">
+        <f>0.5 /SQRT(3)</f>
+        <v>0.28867513459481292</v>
+      </c>
+      <c r="H10" s="29">
+        <f>Data!D6</f>
+        <v>2.5976562500000001E-7</v>
+      </c>
+      <c r="I10" s="15">
+        <f>Data!F6</f>
+        <v>7.4987876759980681E-8</v>
+      </c>
+      <c r="J10" s="16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:14" ht="15.6">
+      <c r="A11" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="31" t="n">
+      <c r="E11" s="30">
         <v>0.5</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="32" t="n">
-        <f aca="false">0.5 /SQRT(3)</f>
-        <v>0.288675134594813</v>
-      </c>
-      <c r="H11" s="33" t="n">
-        <f aca="false">Data!D6</f>
-        <v>2.59765625E-007</v>
-      </c>
-      <c r="I11" s="21" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J11" s="22" t="s">
+      <c r="G11" s="31">
+        <f>0.5 /SQRT(3)</f>
+        <v>0.28867513459481292</v>
+      </c>
+      <c r="H11" s="32">
+        <f>Data!D6</f>
+        <v>2.5976562500000001E-7</v>
+      </c>
+      <c r="I11" s="42">
+        <f>Data!F6</f>
+        <v>7.4987876759980681E-8</v>
+      </c>
+      <c r="J11" s="21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="n">
+    <row r="12" spans="1:14">
+      <c r="A12" s="17">
         <v>6</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="21" t="e">
-        <f aca="false">SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J12" s="22" t="s">
+      <c r="I12" s="20">
+        <f>SUM(Data!F7:F31)</f>
+        <v>2.003614818854632E-8</v>
+      </c>
+      <c r="J12" s="21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="34" t="s">
+    <row r="13" spans="1:14">
+      <c r="A13" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="36" t="n">
-        <f aca="false">1.039 *10^-5</f>
-        <v>1.039E-005</v>
-      </c>
-      <c r="D13" s="35" t="s">
+      <c r="C13" s="35">
+        <f>1.039 *10^-5</f>
+        <v>1.039E-5</v>
+      </c>
+      <c r="D13" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="I13" s="38" t="n">
-        <v>1.29436290562918E-007</v>
-      </c>
-      <c r="J13" s="39" t="s">
+      <c r="I13" s="37">
+        <v>3.2183031781572201E-7</v>
+      </c>
+      <c r="J13" s="38" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H14" s="40" t="s">
+    <row r="14" spans="1:14">
+      <c r="H14" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="I14" s="41" t="n">
+      <c r="I14" s="40">
         <v>2</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H15" s="42" t="s">
+    <row r="15" spans="1:14">
+      <c r="H15" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="I15" s="43" t="n">
-        <f aca="false">I13*2</f>
-        <v>2.58872581125836E-007</v>
+      <c r="I15" s="43">
+        <f>I13*2</f>
+        <v>6.4366063563144401E-7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="26.4">
+      <c r="A18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="13">
+        <v>1</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="44">
+        <v>125</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="44">
+        <f>1/SQRT(3)</f>
+        <v>0.57735026918962584</v>
+      </c>
+      <c r="H19" s="45">
+        <f>Data!D19</f>
+        <v>2.10869312286377E-5</v>
+      </c>
+      <c r="I19" s="46">
+        <f>Data!F19</f>
+        <v>3.8267090615971189E-12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="48">
+        <v>1</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="47">
+        <f>1/SQRT(3)</f>
+        <v>0.57735026918962584</v>
+      </c>
+      <c r="H20" s="49">
+        <f>Data!D19</f>
+        <v>2.10869312286377E-5</v>
+      </c>
+      <c r="I20" s="50">
+        <f>Data!F19</f>
+        <v>3.8267090615971189E-12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="13">
+        <v>2</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="51">
+        <f>5*10^(-9) /SQRT(3)</f>
+        <v>2.8867513459481292E-9</v>
+      </c>
+      <c r="H21" s="52">
+        <f>Data!D20</f>
+        <v>2.6358664035797101E-11</v>
+      </c>
+      <c r="I21" s="46">
+        <f>Data!F20</f>
+        <v>4.2783907959227964E-11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="53">
+        <v>5</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="54">
+        <f>5*10^(-9) /SQRT(3)</f>
+        <v>2.8867513459481292E-9</v>
+      </c>
+      <c r="H22" s="55">
+        <f>Data!D20</f>
+        <v>2.6358664035797101E-11</v>
+      </c>
+      <c r="I22" s="50">
+        <f>Data!F20</f>
+        <v>4.2783907959227964E-11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.6">
+      <c r="A23" s="13">
+        <v>3</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="51">
+        <f>0.05*10^(-3) /SQRT(3)</f>
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="H23" s="52">
+        <f>Data!D21</f>
+        <v>2.6358664035797101E-11</v>
+      </c>
+      <c r="I23" s="46">
+        <f>Data!F21</f>
+        <v>4.2783907959227964E-11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.6">
+      <c r="A24" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="F24" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="54">
+        <f>0.05*10^(-3) /SQRT(3)</f>
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="H24" s="55">
+        <f>Data!D21</f>
+        <v>2.6358664035797101E-11</v>
+      </c>
+      <c r="I24" s="50">
+        <f>Data!F21</f>
+        <v>4.2783907959227964E-11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="13.8">
+      <c r="A25" s="13">
+        <v>4</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="57">
+        <f>0.5 /SQRT(3)</f>
+        <v>0.28867513459481292</v>
+      </c>
+      <c r="H25" s="58">
+        <f>Data!D22</f>
+        <v>2.1593017578124998E-18</v>
+      </c>
+      <c r="I25" s="46">
+        <f>Data!F22</f>
+        <v>2.4490937994221576E-10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="60">
+        <f>0.5 /SQRT(3)</f>
+        <v>0.28867513459481292</v>
+      </c>
+      <c r="H26" s="61">
+        <f>Data!D22</f>
+        <v>2.1593017578124998E-18</v>
+      </c>
+      <c r="I26" s="50">
+        <f>Data!F22</f>
+        <v>2.4490937994221576E-10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.6">
+      <c r="A27" s="13">
+        <v>5</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="57">
+        <f>0.5 /SQRT(3)</f>
+        <v>0.28867513459481292</v>
+      </c>
+      <c r="H27" s="58">
+        <f>Data!D23</f>
+        <v>0.119209289550781</v>
+      </c>
+      <c r="I27" s="46">
+        <f>Data!F23</f>
+        <v>1.5306836246388474E-9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.6">
+      <c r="A28" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="60">
+        <f>0.5 /SQRT(3)</f>
+        <v>0.28867513459481292</v>
+      </c>
+      <c r="H28" s="61">
+        <f>Data!D23</f>
+        <v>0.119209289550781</v>
+      </c>
+      <c r="I28" s="50">
+        <f>Data!F23</f>
+        <v>1.5306836246388474E-9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="35">
+        <f>1.039 *10^-5</f>
+        <v>1.039E-5</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="I29" s="62">
+        <v>3.2183031781572201E-7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="H30" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="I30" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="H31" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" s="43">
+        <f>I29*2</f>
+        <v>6.4366063563144401E-7</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4773,47 +5749,43 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB23" activeCellId="0" sqref="AB23"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:2">
+      <c r="A2">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2">
         <v>80</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:2">
+      <c r="A3">
         <v>60</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>80.033</v>
+      <c r="B3">
+        <v>80.033000000000001</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/code/graphs.xlsx
+++ b/code/graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaled\Documents\GitHub\ThermalExpansionUncertainty\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CC7D6B-C96F-436D-9260-D42000556666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DE1DAD-411E-48C3-9410-C3D6ECE15359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="134">
   <si>
     <t>SensibilityCoeficientsVariables</t>
   </si>
@@ -1155,13 +1155,46 @@
   </si>
   <si>
     <t>Length</t>
+  </si>
+  <si>
+    <t>Number of Transitions N</t>
+  </si>
+  <si>
+    <t>Maximum N Error</t>
+  </si>
+  <si>
+    <t>Wavelength λ</t>
+  </si>
+  <si>
+    <t>Maximum λ Error</t>
+  </si>
+  <si>
+    <t>Initial Length L0</t>
+  </si>
+  <si>
+    <t>Maximum L0 Error</t>
+  </si>
+  <si>
+    <t>Object Temperature T</t>
+  </si>
+  <si>
+    <t>60 °C</t>
+  </si>
+  <si>
+    <t>Maximum T Error</t>
+  </si>
+  <si>
+    <t>Temperature of Reference T0</t>
+  </si>
+  <si>
+    <t>Maximum T0 Error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="164" formatCode="General&quot; °C^-1&quot;"/>
     <numFmt numFmtId="165" formatCode="&quot;± &quot;General"/>
     <numFmt numFmtId="166" formatCode="General&quot; m&quot;"/>
@@ -1172,8 +1205,9 @@
     <numFmt numFmtId="171" formatCode="General&quot; °C^-2&quot;"/>
     <numFmt numFmtId="172" formatCode="&quot;± &quot;General&quot; °C&quot;"/>
     <numFmt numFmtId="173" formatCode="0.000E+00&quot; °C^-1&quot;"/>
+    <numFmt numFmtId="176" formatCode="&quot;± &quot;General\ &quot;%&quot;"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1249,6 +1283,24 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="DejaVu Sans"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1387,7 +1439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1504,15 +1556,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1522,9 +1580,6 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1558,7 +1613,65 @@
     <xf numFmtId="171" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1734,6 +1847,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-6428-46AF-A650-2F3FC9CFF381}"/>
                 </c:ext>
@@ -2220,6 +2334,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-C6A2-42F3-A50A-A68BADA85E3E}"/>
                 </c:ext>
@@ -3387,7 +3502,7 @@
         <v>8.9970906575520802E-14</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F2:F31" si="0">SQRT(E3)</f>
+        <f t="shared" ref="F3:F31" si="0">SQRT(E3)</f>
         <v>2.9995150703992272E-7</v>
       </c>
       <c r="G3" s="3"/>
@@ -4854,23 +4969,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:I31"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="74" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="55.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="44.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="42.75" customHeight="1">
@@ -5375,320 +5490,300 @@
       <c r="A19" s="13">
         <v>1</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="47">
         <v>125</v>
       </c>
-      <c r="D19" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="44">
+      <c r="D19" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="47">
         <f>1/SQRT(3)</f>
         <v>0.57735026918962584</v>
       </c>
-      <c r="H19" s="45">
-        <f>Data!D19</f>
-        <v>2.10869312286377E-5</v>
-      </c>
-      <c r="I19" s="46">
-        <f>Data!F19</f>
-        <v>3.8267090615971189E-12</v>
+      <c r="H19" s="48">
+        <v>8.3124999999999998E-8</v>
+      </c>
+      <c r="I19" s="44">
+        <v>4.799224112638761E-8</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="47" t="s">
+      <c r="C20" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="50">
         <v>1</v>
       </c>
-      <c r="F20" s="47" t="s">
+      <c r="F20" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="47">
+      <c r="G20" s="49">
         <f>1/SQRT(3)</f>
         <v>0.57735026918962584</v>
       </c>
-      <c r="H20" s="49">
-        <f>Data!D19</f>
-        <v>2.10869312286377E-5</v>
-      </c>
-      <c r="I20" s="50">
-        <f>Data!F19</f>
-        <v>3.8267090615971189E-12</v>
+      <c r="H20" s="51">
+        <v>8.3124999999999998E-8</v>
+      </c>
+      <c r="I20" s="45">
+        <v>4.799224112638761E-8</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="13">
         <v>2</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="51">
+      <c r="D21" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="52">
         <f>5*10^(-9) /SQRT(3)</f>
         <v>2.8867513459481292E-9</v>
       </c>
-      <c r="H21" s="52">
-        <f>Data!D20</f>
-        <v>2.6358664035797101E-11</v>
-      </c>
-      <c r="I21" s="46">
-        <f>Data!F20</f>
-        <v>4.2783907959227964E-11</v>
+      <c r="H21" s="53">
+        <v>19.53125</v>
+      </c>
+      <c r="I21" s="44">
+        <v>2.9995150703992272E-7</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="47" t="s">
+      <c r="C22" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="53">
+      <c r="E22" s="54">
         <v>5</v>
       </c>
-      <c r="F22" s="47" t="s">
+      <c r="F22" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="54">
+      <c r="G22" s="55">
         <f>5*10^(-9) /SQRT(3)</f>
         <v>2.8867513459481292E-9</v>
       </c>
-      <c r="H22" s="55">
-        <f>Data!D20</f>
-        <v>2.6358664035797101E-11</v>
-      </c>
-      <c r="I22" s="50">
-        <f>Data!F20</f>
-        <v>4.2783907959227964E-11</v>
+      <c r="H22" s="56">
+        <v>19.53125</v>
+      </c>
+      <c r="I22" s="45">
+        <v>2.9995150703992272E-7</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.6">
       <c r="A23" s="13">
         <v>3</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="51">
+      <c r="D23" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="52">
         <f>0.05*10^(-3) /SQRT(3)</f>
         <v>2.8867513459481293E-5</v>
       </c>
-      <c r="H23" s="52">
-        <f>Data!D21</f>
-        <v>2.6358664035797101E-11</v>
-      </c>
-      <c r="I23" s="46">
-        <f>Data!F21</f>
-        <v>4.2783907959227964E-11</v>
+      <c r="H23" s="53">
+        <v>-1.2988281250000001E-4</v>
+      </c>
+      <c r="I23" s="44">
+        <v>3.7493938379990304E-9</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.6">
       <c r="A24" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="47" t="s">
+      <c r="C24" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="56">
+      <c r="E24" s="57">
         <v>0.05</v>
       </c>
-      <c r="F24" s="47" t="s">
+      <c r="F24" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="54">
+      <c r="G24" s="55">
         <f>0.05*10^(-3) /SQRT(3)</f>
         <v>2.8867513459481293E-5</v>
       </c>
-      <c r="H24" s="55">
-        <f>Data!D21</f>
-        <v>2.6358664035797101E-11</v>
-      </c>
-      <c r="I24" s="50">
-        <f>Data!F21</f>
-        <v>4.2783907959227964E-11</v>
+      <c r="H24" s="56">
+        <v>-1.2988281250000001E-4</v>
+      </c>
+      <c r="I24" s="45">
+        <v>3.7493938379990304E-9</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="13.8">
       <c r="A25" s="13">
         <v>4</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="57">
+      <c r="D25" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="58">
         <f>0.5 /SQRT(3)</f>
         <v>0.28867513459481292</v>
       </c>
-      <c r="H25" s="58">
-        <f>Data!D22</f>
-        <v>2.1593017578124998E-18</v>
-      </c>
-      <c r="I25" s="46">
-        <f>Data!F22</f>
-        <v>2.4490937994221576E-10</v>
+      <c r="H25" s="59">
+        <v>-2.5976562500000001E-7</v>
+      </c>
+      <c r="I25" s="44">
+        <v>7.4987876759980681E-8</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="47" t="s">
+      <c r="C26" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="59">
+      <c r="E26" s="60">
         <v>0.5</v>
       </c>
-      <c r="F26" s="47" t="s">
+      <c r="F26" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="G26" s="60">
+      <c r="G26" s="61">
         <f>0.5 /SQRT(3)</f>
         <v>0.28867513459481292</v>
       </c>
-      <c r="H26" s="61">
-        <f>Data!D22</f>
-        <v>2.1593017578124998E-18</v>
-      </c>
-      <c r="I26" s="50">
-        <f>Data!F22</f>
-        <v>2.4490937994221576E-10</v>
+      <c r="H26" s="62">
+        <v>-2.5976562500000001E-7</v>
+      </c>
+      <c r="I26" s="45">
+        <v>7.4987876759980681E-8</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.6">
       <c r="A27" s="13">
         <v>5</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="G27" s="57">
+      <c r="D27" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="58">
         <f>0.5 /SQRT(3)</f>
         <v>0.28867513459481292</v>
       </c>
-      <c r="H27" s="58">
-        <f>Data!D23</f>
-        <v>0.119209289550781</v>
-      </c>
-      <c r="I27" s="46">
-        <f>Data!F23</f>
-        <v>1.5306836246388474E-9</v>
+      <c r="H27" s="59">
+        <v>2.5976562500000001E-7</v>
+      </c>
+      <c r="I27" s="44">
+        <v>7.4987876759980681E-8</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.6">
       <c r="A28" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="47" t="s">
+      <c r="C28" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="59">
+      <c r="E28" s="60">
         <v>0.5</v>
       </c>
-      <c r="F28" s="47" t="s">
+      <c r="F28" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="G28" s="60">
+      <c r="G28" s="61">
         <f>0.5 /SQRT(3)</f>
         <v>0.28867513459481292</v>
       </c>
-      <c r="H28" s="61">
-        <f>Data!D23</f>
-        <v>0.119209289550781</v>
-      </c>
-      <c r="I28" s="50">
-        <f>Data!F23</f>
-        <v>1.5306836246388474E-9</v>
+      <c r="H28" s="62">
+        <v>2.5976562500000001E-7</v>
+      </c>
+      <c r="I28" s="45">
+        <v>7.4987876759980681E-8</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -5717,7 +5812,7 @@
       <c r="H29" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="I29" s="62">
+      <c r="I29" s="46">
         <v>3.2183031781572201E-7</v>
       </c>
     </row>
@@ -5738,9 +5833,374 @@
         <v>6.4366063563144401E-7</v>
       </c>
     </row>
+    <row r="34" spans="1:9" ht="98.4">
+      <c r="A34" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="H34" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="I34" s="65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="24.6">
+      <c r="A35" s="66">
+        <v>1</v>
+      </c>
+      <c r="B35" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="66">
+        <v>125</v>
+      </c>
+      <c r="D35" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="G35" s="67">
+        <v>0.57735026918962584</v>
+      </c>
+      <c r="H35" s="68">
+        <v>8.3124999999999998E-8</v>
+      </c>
+      <c r="I35" s="68">
+        <v>4.799224112638761E-8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="24.6">
+      <c r="A36" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="70">
+        <v>1</v>
+      </c>
+      <c r="F36" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="G36" s="71">
+        <v>0.57735026918962584</v>
+      </c>
+      <c r="H36" s="72">
+        <v>8.3124999999999998E-8</v>
+      </c>
+      <c r="I36" s="73">
+        <v>4.799224112638761E-8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="24.6">
+      <c r="A37" s="66">
+        <v>2</v>
+      </c>
+      <c r="B37" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37" s="67">
+        <v>2.8867513459481292E-9</v>
+      </c>
+      <c r="H37" s="74">
+        <v>19.53125</v>
+      </c>
+      <c r="I37" s="68">
+        <v>2.9995150703992272E-7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="24.6">
+      <c r="A38" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="75">
+        <v>0.05</v>
+      </c>
+      <c r="F38" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="71">
+        <v>2.8867513459481292E-9</v>
+      </c>
+      <c r="H38" s="76">
+        <v>19.53125</v>
+      </c>
+      <c r="I38" s="73">
+        <v>2.9995150703992272E-7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="24.6">
+      <c r="A39" s="66">
+        <v>3</v>
+      </c>
+      <c r="B39" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" s="67">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="H39" s="74">
+        <v>-1.2988281250000001E-4</v>
+      </c>
+      <c r="I39" s="68">
+        <v>3.7493938379990304E-9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="24.6">
+      <c r="A40" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="77">
+        <v>0.05</v>
+      </c>
+      <c r="F40" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="G40" s="71">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="H40" s="76">
+        <v>-1.2988281250000001E-4</v>
+      </c>
+      <c r="I40" s="73">
+        <v>3.7493938379990304E-9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="24.6">
+      <c r="A41" s="66">
+        <v>4</v>
+      </c>
+      <c r="B41" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="G41" s="67">
+        <v>0.28867513459481292</v>
+      </c>
+      <c r="H41" s="78">
+        <v>-2.5976562500000001E-7</v>
+      </c>
+      <c r="I41" s="68">
+        <v>7.4987876759980681E-8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="24.6">
+      <c r="A42" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="79">
+        <v>0.5</v>
+      </c>
+      <c r="F42" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="G42" s="71">
+        <v>0.28867513459481292</v>
+      </c>
+      <c r="H42" s="80">
+        <v>-2.5976562500000001E-7</v>
+      </c>
+      <c r="I42" s="73">
+        <v>7.4987876759980681E-8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="24.6">
+      <c r="A43" s="66">
+        <v>5</v>
+      </c>
+      <c r="B43" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="G43" s="67">
+        <v>0.28867513459481292</v>
+      </c>
+      <c r="H43" s="78">
+        <v>2.5976562500000001E-7</v>
+      </c>
+      <c r="I43" s="68">
+        <v>7.4987876759980681E-8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="24.6">
+      <c r="A44" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="79">
+        <v>0.5</v>
+      </c>
+      <c r="F44" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="G44" s="71">
+        <v>0.28867513459481292</v>
+      </c>
+      <c r="H44" s="80">
+        <v>2.5976562500000001E-7</v>
+      </c>
+      <c r="I44" s="73">
+        <v>7.4987876759980681E-8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="24.6">
+      <c r="A45" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="81">
+        <v>1.039E-5</v>
+      </c>
+      <c r="D45" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="F45" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="G45" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="H45" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="I45" s="83">
+        <v>3.2183031781572201E-7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="H46" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="I46" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="H47" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I47" s="43">
+        <f>I45*2</f>
+        <v>6.4366063563144401E-7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/code/graphs.xlsx
+++ b/code/graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaled\Documents\GitHub\ThermalExpansionUncertainty\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04764632-7AC6-4E2A-9A7E-D0FD3361A09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22094155-8041-4819-89C2-C93B6134773A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1194,7 +1194,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="11">
+  <numFmts count="12">
     <numFmt numFmtId="164" formatCode="General&quot; °C^-1&quot;"/>
     <numFmt numFmtId="165" formatCode="&quot;± &quot;General"/>
     <numFmt numFmtId="166" formatCode="General&quot; m&quot;"/>
@@ -1206,6 +1206,7 @@
     <numFmt numFmtId="172" formatCode="&quot;± &quot;General&quot; °C&quot;"/>
     <numFmt numFmtId="173" formatCode="0.000E+00&quot; °C^-1&quot;"/>
     <numFmt numFmtId="174" formatCode="&quot;± &quot;General\ &quot;%&quot;"/>
+    <numFmt numFmtId="175" formatCode="0.00E+00\ &quot; m^-1 °C^-1&quot;"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -1439,7 +1440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1625,6 +1626,12 @@
     </xf>
     <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4936,7 +4943,7 @@
     <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="44.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5952,7 +5959,7 @@
       <c r="G39" s="51">
         <v>2.8867513459481293E-5</v>
       </c>
-      <c r="H39" s="58">
+      <c r="H39" s="68">
         <v>-1.2988281250000001E-4</v>
       </c>
       <c r="I39" s="52">
@@ -5981,7 +5988,7 @@
       <c r="G40" s="55">
         <v>2.8867513459481293E-5</v>
       </c>
-      <c r="H40" s="60">
+      <c r="H40" s="69">
         <v>-1.2988281250000001E-4</v>
       </c>
       <c r="I40" s="57">

--- a/code/graphs.xlsx
+++ b/code/graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaled\Documents\GitHub\ThermalExpansionUncertainty\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22094155-8041-4819-89C2-C93B6134773A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860DF716-BB00-4AC2-A0E9-3FA5CED8E873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="135">
   <si>
     <t>SensibilityCoeficientsVariables</t>
   </si>
@@ -1188,6 +1188,9 @@
   </si>
   <si>
     <t>Maximum T0 Error</t>
+  </si>
+  <si>
+    <t>0.00001039 ℃^(−1)</t>
   </si>
 </sst>
 </file>
@@ -1199,16 +1202,16 @@
     <numFmt numFmtId="165" formatCode="&quot;± &quot;General"/>
     <numFmt numFmtId="166" formatCode="General&quot; m&quot;"/>
     <numFmt numFmtId="167" formatCode="General&quot; m^-1 °C^-1&quot;"/>
-    <numFmt numFmtId="168" formatCode="&quot;± &quot;General&quot; nm&quot;"/>
     <numFmt numFmtId="169" formatCode="&quot;± &quot;General&quot; mm&quot;"/>
     <numFmt numFmtId="170" formatCode="General&quot; °C&quot;"/>
     <numFmt numFmtId="171" formatCode="General&quot; °C^-2&quot;"/>
     <numFmt numFmtId="172" formatCode="&quot;± &quot;General&quot; °C&quot;"/>
     <numFmt numFmtId="173" formatCode="0.000E+00&quot; °C^-1&quot;"/>
     <numFmt numFmtId="174" formatCode="&quot;± &quot;General\ &quot;%&quot;"/>
-    <numFmt numFmtId="175" formatCode="0.00E+00\ &quot; m^-1 °C^-1&quot;"/>
+    <numFmt numFmtId="178" formatCode="&quot;k= &quot;General"/>
+    <numFmt numFmtId="179" formatCode="&quot;U= &quot;General&quot; °C^-1&quot;"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1284,24 +1287,6 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <name val="DejaVu Sans"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1440,7 +1425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1499,9 +1484,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1566,71 +1548,64 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2829,7 +2804,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="2600" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="2600" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Temperature  / °C</a:t>
@@ -2896,7 +2871,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="2600" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="2600" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Length / mm</a:t>
@@ -3051,6 +3026,178 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>64168</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>132347</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="409984" cy="347211"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF7C19B6-548D-C811-217B-979D780EC72E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7002379" y="3332747"/>
+              <a:ext cx="409984" cy="347211"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>℃</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−1</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100" b="0">
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF7C19B6-548D-C811-217B-979D780EC72E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7002379" y="3332747"/>
+              <a:ext cx="409984" cy="347211"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>℃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^(−1)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0">
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3390,8 +3537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="131" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="131" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -3458,11 +3605,11 @@
         <v>19.53125</v>
       </c>
       <c r="E3" s="2">
-        <v>8.9970906575520802E-14</v>
+        <v>7.94728597005208E-14</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F31" si="0">SQRT(E3)</f>
-        <v>2.9995150703992272E-7</v>
+        <f>SQRT(E3)</f>
+        <v>2.8190931112774692E-7</v>
       </c>
       <c r="G3" s="3"/>
     </row>
@@ -3483,7 +3630,7 @@
         <v>1.4057954152425101E-17</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F3:F31" si="0">SQRT(E4)</f>
         <v>3.7493938379990304E-9</v>
       </c>
       <c r="G4" s="3"/>
@@ -3568,11 +3715,11 @@
         <v>1.220703125E-2</v>
       </c>
       <c r="E8" s="2">
-        <v>9.5968967013889009E-19</v>
+        <v>8.4771050347222299E-19</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>9.7963751976886325E-10</v>
+        <v>9.2071195466998414E-10</v>
       </c>
       <c r="G8" s="3"/>
     </row>
@@ -3656,11 +3803,11 @@
         <v>1.220703125E-2</v>
       </c>
       <c r="E12" s="2">
-        <v>9.5968967013889009E-19</v>
+        <v>8.4771050347222299E-19</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>9.7963751976886325E-10</v>
+        <v>9.2071195466998414E-10</v>
       </c>
       <c r="G12" s="3"/>
     </row>
@@ -3700,11 +3847,11 @@
         <v>149011.611938477</v>
       </c>
       <c r="E14" s="2">
-        <v>2.9287404484218998E-20</v>
+        <v>2.58700715170966E-20</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>1.7113563183691173E-10</v>
+        <v>1.6084175924521779E-10</v>
       </c>
       <c r="G14" s="3"/>
     </row>
@@ -3722,11 +3869,11 @@
         <v>0.59604644775390603</v>
       </c>
       <c r="E15" s="2">
-        <v>1.17149617936876E-17</v>
+        <v>1.03480286068387E-17</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>3.4227126367382348E-9</v>
+        <v>3.2168351849043649E-9</v>
       </c>
       <c r="G15" s="3"/>
     </row>
@@ -3744,11 +3891,11 @@
         <v>0.59604644775390603</v>
       </c>
       <c r="E16" s="2">
-        <v>1.17149617936876E-17</v>
+        <v>1.03480286068387E-17</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>3.4227126367382348E-9</v>
+        <v>3.2168351849043649E-9</v>
       </c>
       <c r="G16" s="3"/>
     </row>
@@ -3788,11 +3935,11 @@
         <v>29802.322387695302</v>
       </c>
       <c r="E18" s="2">
-        <v>5.8574808968438099E-21</v>
+        <v>5.1740143034193303E-21</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>7.6534181231942435E-11</v>
+        <v>7.1930621458592519E-11</v>
       </c>
       <c r="G18" s="3"/>
     </row>
@@ -3898,11 +4045,11 @@
         <v>0.119209289550781</v>
       </c>
       <c r="E23" s="2">
-        <v>2.3429923587375198E-18</v>
+        <v>2.0696057213677299E-18</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>1.5306836246388474E-9</v>
+        <v>1.4386124291718497E-9</v>
       </c>
       <c r="G23" s="3"/>
     </row>
@@ -4008,11 +4155,11 @@
         <v>0.119209289550781</v>
       </c>
       <c r="E28" s="2">
-        <v>2.3429923587375198E-18</v>
+        <v>2.0696057213677299E-18</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>1.5306836246388474E-9</v>
+        <v>1.4386124291718497E-9</v>
       </c>
       <c r="G28" s="3"/>
     </row>
@@ -4928,10 +5075,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="74" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:I45"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -5045,7 +5192,7 @@
         <f>Data!D2</f>
         <v>8.3124999999999998E-8</v>
       </c>
-      <c r="I3" s="42">
+      <c r="I3" s="41">
         <f>Data!F2</f>
         <v>4.799224112638761E-8</v>
       </c>
@@ -5082,7 +5229,7 @@
       </c>
       <c r="I4" s="15">
         <f>Data!F3</f>
-        <v>2.9995150703992272E-7</v>
+        <v>2.8190931112774692E-7</v>
       </c>
       <c r="J4" s="16" t="s">
         <v>93</v>
@@ -5101,23 +5248,23 @@
       <c r="D5" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="24">
-        <v>5</v>
+      <c r="E5" s="46">
+        <v>25</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="24">
         <f>5*10^(-9) /SQRT(3)</f>
         <v>2.8867513459481292E-9</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="25">
         <f>Data!D3</f>
         <v>19.53125</v>
       </c>
-      <c r="I5" s="42">
+      <c r="I5" s="41">
         <f>Data!F3</f>
-        <v>2.9995150703992272E-7</v>
+        <v>2.8190931112774692E-7</v>
       </c>
       <c r="J5" s="21" t="s">
         <v>93</v>
@@ -5171,21 +5318,21 @@
       <c r="D7" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="26">
         <v>0.05</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="24">
         <f>0.05*10^(-3) /SQRT(3)</f>
         <v>2.8867513459481293E-5</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="25">
         <f>Data!D4</f>
         <v>-1.2988281250000001E-4</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="41">
         <f>Data!F4</f>
         <v>3.7493938379990304E-9</v>
       </c>
@@ -5212,11 +5359,11 @@
       <c r="F8" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="27">
         <f>0.5 /SQRT(3)</f>
         <v>0.28867513459481292</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="28">
         <f>Data!D5</f>
         <v>-2.5976562500000001E-7</v>
       </c>
@@ -5241,21 +5388,21 @@
       <c r="D9" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="29">
         <v>0.5</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="30">
         <f>0.5 /SQRT(3)</f>
         <v>0.28867513459481292</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="31">
         <f>Data!D5</f>
         <v>-2.5976562500000001E-7</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="41">
         <f>Data!F5</f>
         <v>7.4987876759980681E-8</v>
       </c>
@@ -5282,11 +5429,11 @@
       <c r="F10" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="27">
         <f>0.5 /SQRT(3)</f>
         <v>0.28867513459481292</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="28">
         <f>Data!D6</f>
         <v>2.5976562500000001E-7</v>
       </c>
@@ -5311,21 +5458,21 @@
       <c r="D11" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="29">
         <v>0.5</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="30">
         <f>0.5 /SQRT(3)</f>
         <v>0.28867513459481292</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="31">
         <f>Data!D6</f>
         <v>2.5976562500000001E-7</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="41">
         <f>Data!F6</f>
         <v>7.4987876759980681E-8</v>
       </c>
@@ -5360,801 +5507,408 @@
       </c>
       <c r="I12" s="20">
         <f>SUM(Data!F7:F31)</f>
-        <v>2.003614818854632E-8</v>
+        <v>1.9307502331381792E-8</v>
       </c>
       <c r="J12" s="21" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="34">
         <f>1.039 *10^-5</f>
         <v>1.039E-5</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="I13" s="37">
-        <v>3.2183031781572201E-7</v>
-      </c>
-      <c r="J13" s="38" t="s">
+      <c r="I13" s="36">
+        <v>3.0507900270517998E-7</v>
+      </c>
+      <c r="J13" s="37" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="H14" s="39" t="s">
+      <c r="H14" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="39">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="H15" s="41" t="s">
+      <c r="H15" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="I15" s="43">
+      <c r="I15" s="42">
         <f>I13*2</f>
-        <v>6.4366063563144401E-7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="9" t="s">
+        <v>6.1015800541035996E-7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B19" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="E19" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="F19" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="H19" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="13">
+    <row r="20" spans="1:8">
+      <c r="A20" s="13">
         <v>1</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="14">
+      <c r="B20" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="49">
         <v>125</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D20" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E20" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F20" s="49">
+        <v>0.57735026918962584</v>
+      </c>
+      <c r="G20" s="50">
+        <v>8.3124999999999998E-8</v>
+      </c>
+      <c r="H20" s="43">
+        <v>4.799224112638761E-8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="G19" s="14">
-        <f>1/SQRT(3)</f>
+      <c r="D21" s="52">
+        <v>1</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="51">
         <v>0.57735026918962584</v>
       </c>
-      <c r="H19" s="15">
+      <c r="G21" s="53">
         <v>8.3124999999999998E-8</v>
       </c>
-      <c r="I19" s="44">
+      <c r="H21" s="44">
         <v>4.799224112638761E-8</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="18" t="s">
+    <row r="22" spans="1:8">
+      <c r="A22" s="13">
+        <v>2</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" s="19">
-        <v>1</v>
-      </c>
-      <c r="F20" s="18" t="s">
+      <c r="E22" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="54">
+        <v>2.8867513459481292E-9</v>
+      </c>
+      <c r="G22" s="55">
+        <v>19.53125</v>
+      </c>
+      <c r="H22" s="43">
+        <v>2.8190931112774692E-7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="56">
+        <v>25</v>
+      </c>
+      <c r="E23" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="18">
-        <f>1/SQRT(3)</f>
-        <v>0.57735026918962584</v>
-      </c>
-      <c r="H20" s="20">
-        <v>8.3124999999999998E-8</v>
-      </c>
-      <c r="I20" s="45">
-        <v>4.799224112638761E-8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="13">
+      <c r="F23" s="57">
+        <v>2.8867513459481292E-9</v>
+      </c>
+      <c r="G23" s="58">
+        <v>19.53125</v>
+      </c>
+      <c r="H23" s="44">
+        <v>2.8190931112774692E-7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="13">
+        <v>3</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="54">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="G24" s="55">
+        <v>-1.2988281250000001E-4</v>
+      </c>
+      <c r="H24" s="43">
+        <v>3.7493938379990304E-9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="59">
+        <v>0.05</v>
+      </c>
+      <c r="E25" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="57">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="G25" s="58">
+        <v>-1.2988281250000001E-4</v>
+      </c>
+      <c r="H25" s="44">
+        <v>3.7493938379990304E-9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="13">
+        <v>4</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="60">
+        <v>0.28867513459481292</v>
+      </c>
+      <c r="G26" s="61">
+        <v>-2.5976562500000001E-7</v>
+      </c>
+      <c r="H26" s="43">
+        <v>7.4987876759980681E-8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="62">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="63">
+        <v>0.28867513459481292</v>
+      </c>
+      <c r="G27" s="64">
+        <v>-2.5976562500000001E-7</v>
+      </c>
+      <c r="H27" s="44">
+        <v>7.4987876759980681E-8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="13">
+        <v>5</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="60">
+        <v>0.28867513459481292</v>
+      </c>
+      <c r="G28" s="61">
+        <v>2.5976562500000001E-7</v>
+      </c>
+      <c r="H28" s="43">
+        <v>7.4987876759980681E-8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="62">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="63">
+        <v>0.28867513459481292</v>
+      </c>
+      <c r="G29" s="64">
+        <v>2.5976562500000001E-7</v>
+      </c>
+      <c r="H29" s="44">
+        <v>7.4987876759980681E-8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="17">
+        <v>6</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="H30" s="65">
+        <v>1.9307502331381792E-8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="H31" s="45">
+        <v>3.0507900270517998E-7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="H32" s="47">
         <v>2</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="22">
-        <f>5*10^(-9) /SQRT(3)</f>
-        <v>2.8867513459481292E-9</v>
-      </c>
-      <c r="H21" s="23">
-        <v>19.53125</v>
-      </c>
-      <c r="I21" s="44">
-        <v>2.9995150703992272E-7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="24">
-        <v>5</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" s="25">
-        <f>5*10^(-9) /SQRT(3)</f>
-        <v>2.8867513459481292E-9</v>
-      </c>
-      <c r="H22" s="26">
-        <v>19.53125</v>
-      </c>
-      <c r="I22" s="45">
-        <v>2.9995150703992272E-7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.6">
-      <c r="A23" s="13">
-        <v>3</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="22">
-        <f>0.05*10^(-3) /SQRT(3)</f>
-        <v>2.8867513459481293E-5</v>
-      </c>
-      <c r="H23" s="23">
-        <v>-1.2988281250000001E-4</v>
-      </c>
-      <c r="I23" s="44">
-        <v>3.7493938379990304E-9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.6">
-      <c r="A24" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" s="25">
-        <f>0.05*10^(-3) /SQRT(3)</f>
-        <v>2.8867513459481293E-5</v>
-      </c>
-      <c r="H24" s="26">
-        <v>-1.2988281250000001E-4</v>
-      </c>
-      <c r="I24" s="45">
-        <v>3.7493938379990304E-9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="13.8">
-      <c r="A25" s="13">
-        <v>4</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="28">
-        <f>0.5 /SQRT(3)</f>
-        <v>0.28867513459481292</v>
-      </c>
-      <c r="H25" s="29">
-        <v>-2.5976562500000001E-7</v>
-      </c>
-      <c r="I25" s="44">
-        <v>7.4987876759980681E-8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G26" s="31">
-        <f>0.5 /SQRT(3)</f>
-        <v>0.28867513459481292</v>
-      </c>
-      <c r="H26" s="32">
-        <v>-2.5976562500000001E-7</v>
-      </c>
-      <c r="I26" s="45">
-        <v>7.4987876759980681E-8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.6">
-      <c r="A27" s="13">
-        <v>5</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G27" s="28">
-        <f>0.5 /SQRT(3)</f>
-        <v>0.28867513459481292</v>
-      </c>
-      <c r="H27" s="29">
-        <v>2.5976562500000001E-7</v>
-      </c>
-      <c r="I27" s="44">
-        <v>7.4987876759980681E-8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.6">
-      <c r="A28" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G28" s="31">
-        <f>0.5 /SQRT(3)</f>
-        <v>0.28867513459481292</v>
-      </c>
-      <c r="H28" s="32">
-        <v>2.5976562500000001E-7</v>
-      </c>
-      <c r="I28" s="45">
-        <v>7.4987876759980681E-8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="35">
-        <f>1.039 *10^-5</f>
-        <v>1.039E-5</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="G29" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="H29" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="I29" s="46">
-        <v>3.2183031781572201E-7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="H30" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="I30" s="40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="H31" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="I31" s="43">
-        <f>I29*2</f>
-        <v>6.4366063563144401E-7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="73.8">
-      <c r="A34" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="G34" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="H34" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="I34" s="49" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="24.6">
-      <c r="A35" s="50">
-        <v>1</v>
-      </c>
-      <c r="B35" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" s="50">
-        <v>125</v>
-      </c>
-      <c r="D35" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="E35" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="F35" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="G35" s="51">
-        <v>0.57735026918962584</v>
-      </c>
-      <c r="H35" s="52">
-        <v>8.3124999999999998E-8</v>
-      </c>
-      <c r="I35" s="52">
-        <v>4.799224112638761E-8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="24.6">
-      <c r="A36" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" s="54">
-        <v>1</v>
-      </c>
-      <c r="F36" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="G36" s="55">
-        <v>0.57735026918962584</v>
-      </c>
-      <c r="H36" s="56">
-        <v>8.3124999999999998E-8</v>
-      </c>
-      <c r="I36" s="57">
-        <v>4.799224112638761E-8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="24.6">
-      <c r="A37" s="50">
-        <v>2</v>
-      </c>
-      <c r="B37" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="F37" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="G37" s="51">
-        <v>2.8867513459481292E-9</v>
-      </c>
-      <c r="H37" s="58">
-        <v>19.53125</v>
-      </c>
-      <c r="I37" s="52">
-        <v>2.9995150703992272E-7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="24.6">
-      <c r="A38" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="B38" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="E38" s="59">
-        <v>0.05</v>
-      </c>
-      <c r="F38" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="G38" s="55">
-        <v>2.8867513459481292E-9</v>
-      </c>
-      <c r="H38" s="60">
-        <v>19.53125</v>
-      </c>
-      <c r="I38" s="57">
-        <v>2.9995150703992272E-7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="24.6">
-      <c r="A39" s="50">
-        <v>3</v>
-      </c>
-      <c r="B39" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="F39" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="G39" s="51">
-        <v>2.8867513459481293E-5</v>
-      </c>
-      <c r="H39" s="68">
-        <v>-1.2988281250000001E-4</v>
-      </c>
-      <c r="I39" s="52">
-        <v>3.7493938379990304E-9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="24.6">
-      <c r="A40" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="C40" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" s="61">
-        <v>0.05</v>
-      </c>
-      <c r="F40" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="G40" s="55">
-        <v>2.8867513459481293E-5</v>
-      </c>
-      <c r="H40" s="69">
-        <v>-1.2988281250000001E-4</v>
-      </c>
-      <c r="I40" s="57">
-        <v>3.7493938379990304E-9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="24.6">
-      <c r="A41" s="50">
-        <v>4</v>
-      </c>
-      <c r="B41" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="C41" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="D41" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="E41" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="F41" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="G41" s="51">
-        <v>0.28867513459481292</v>
-      </c>
-      <c r="H41" s="62">
-        <v>-2.5976562500000001E-7</v>
-      </c>
-      <c r="I41" s="52">
-        <v>7.4987876759980681E-8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="24.6">
-      <c r="A42" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="B42" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="C42" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="E42" s="63">
-        <v>0.5</v>
-      </c>
-      <c r="F42" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="G42" s="55">
-        <v>0.28867513459481292</v>
-      </c>
-      <c r="H42" s="64">
-        <v>-2.5976562500000001E-7</v>
-      </c>
-      <c r="I42" s="57">
-        <v>7.4987876759980681E-8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="24.6">
-      <c r="A43" s="50">
-        <v>5</v>
-      </c>
-      <c r="B43" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="D43" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="E43" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="F43" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="G43" s="51">
-        <v>0.28867513459481292</v>
-      </c>
-      <c r="H43" s="62">
-        <v>2.5976562500000001E-7</v>
-      </c>
-      <c r="I43" s="52">
-        <v>7.4987876759980681E-8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="24.6">
-      <c r="A44" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="B44" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="E44" s="63">
-        <v>0.5</v>
-      </c>
-      <c r="F44" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="G44" s="55">
-        <v>0.28867513459481292</v>
-      </c>
-      <c r="H44" s="64">
-        <v>2.5976562500000001E-7</v>
-      </c>
-      <c r="I44" s="57">
-        <v>7.4987876759980681E-8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="24.6">
-      <c r="A45" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="C45" s="65">
-        <v>1.039E-5</v>
-      </c>
-      <c r="D45" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="E45" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="F45" s="66" t="s">
-        <v>117</v>
-      </c>
-      <c r="G45" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="H45" s="66" t="s">
-        <v>118</v>
-      </c>
-      <c r="I45" s="67">
-        <v>3.2183031781572201E-7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="H46" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="I46" s="48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="H47" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="I47" s="43">
-        <f>I45*2</f>
-        <v>6.4366063563144401E-7</v>
+    </row>
+    <row r="33" spans="8:8">
+      <c r="H33" s="48">
+        <v>6.1015800541035996E-7</v>
       </c>
     </row>
   </sheetData>
@@ -6164,6 +5918,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/code/graphs.xlsx
+++ b/code/graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaled\Documents\GitHub\ThermalExpansionUncertainty\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860DF716-BB00-4AC2-A0E9-3FA5CED8E873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877D9E8F-A81E-4C26-80C5-426CE1E4B7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1202,14 +1202,14 @@
     <numFmt numFmtId="165" formatCode="&quot;± &quot;General"/>
     <numFmt numFmtId="166" formatCode="General&quot; m&quot;"/>
     <numFmt numFmtId="167" formatCode="General&quot; m^-1 °C^-1&quot;"/>
-    <numFmt numFmtId="169" formatCode="&quot;± &quot;General&quot; mm&quot;"/>
-    <numFmt numFmtId="170" formatCode="General&quot; °C&quot;"/>
-    <numFmt numFmtId="171" formatCode="General&quot; °C^-2&quot;"/>
-    <numFmt numFmtId="172" formatCode="&quot;± &quot;General&quot; °C&quot;"/>
-    <numFmt numFmtId="173" formatCode="0.000E+00&quot; °C^-1&quot;"/>
-    <numFmt numFmtId="174" formatCode="&quot;± &quot;General\ &quot;%&quot;"/>
-    <numFmt numFmtId="178" formatCode="&quot;k= &quot;General"/>
-    <numFmt numFmtId="179" formatCode="&quot;U= &quot;General&quot; °C^-1&quot;"/>
+    <numFmt numFmtId="168" formatCode="&quot;± &quot;General&quot; mm&quot;"/>
+    <numFmt numFmtId="169" formatCode="General&quot; °C&quot;"/>
+    <numFmt numFmtId="170" formatCode="General&quot; °C^-2&quot;"/>
+    <numFmt numFmtId="171" formatCode="&quot;± &quot;General&quot; °C&quot;"/>
+    <numFmt numFmtId="172" formatCode="0.000E+00&quot; °C^-1&quot;"/>
+    <numFmt numFmtId="173" formatCode="&quot;± &quot;General\ &quot;%&quot;"/>
+    <numFmt numFmtId="174" formatCode="&quot;k= &quot;General"/>
+    <numFmt numFmtId="175" formatCode="&quot;U= &quot;General&quot; °C^-1&quot;"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -1425,7 +1425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1492,22 +1492,22 @@
     <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1516,7 +1516,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1548,66 +1548,19 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3035,8 +2988,8 @@
       <xdr:rowOff>132347</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="409984" cy="347211"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -3078,6 +3031,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3125,7 +3079,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -3630,7 +3584,7 @@
         <v>1.4057954152425101E-17</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F3:F31" si="0">SQRT(E4)</f>
+        <f t="shared" ref="F4:F31" si="0">SQRT(E4)</f>
         <v>3.7493938379990304E-9</v>
       </c>
       <c r="G4" s="3"/>
@@ -5077,8 +5031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -5563,7 +5517,12 @@
         <v>6.1015800541035996E-7</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="18" spans="1:9">
+      <c r="I18" s="50">
+        <v>47.992199999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="9" t="s">
         <v>81</v>
       </c>
@@ -5589,293 +5548,293 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="13">
         <v>1</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="14">
         <v>125</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="49" t="s">
+      <c r="E20" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="49">
+      <c r="F20" s="14">
         <v>0.57735026918962584</v>
       </c>
-      <c r="G20" s="50">
+      <c r="G20" s="15">
         <v>8.3124999999999998E-8</v>
       </c>
       <c r="H20" s="43">
         <v>4.799224112638761E-8</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="52">
+      <c r="D21" s="19">
         <v>1</v>
       </c>
-      <c r="E21" s="51" t="s">
+      <c r="E21" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="51">
+      <c r="F21" s="18">
         <v>0.57735026918962584</v>
       </c>
-      <c r="G21" s="53">
+      <c r="G21" s="20">
         <v>8.3124999999999998E-8</v>
       </c>
       <c r="H21" s="44">
         <v>4.799224112638761E-8</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="13">
         <v>2</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="49" t="s">
+      <c r="E22" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="54">
+      <c r="F22" s="22">
         <v>2.8867513459481292E-9</v>
       </c>
-      <c r="G22" s="55">
+      <c r="G22" s="23">
         <v>19.53125</v>
       </c>
       <c r="H22" s="43">
         <v>2.8190931112774692E-7</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="56">
+      <c r="D23" s="46">
         <v>25</v>
       </c>
-      <c r="E23" s="51" t="s">
+      <c r="E23" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="57">
+      <c r="F23" s="24">
         <v>2.8867513459481292E-9</v>
       </c>
-      <c r="G23" s="58">
+      <c r="G23" s="25">
         <v>19.53125</v>
       </c>
       <c r="H23" s="44">
         <v>2.8190931112774692E-7</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" s="13">
         <v>3</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="54">
+      <c r="F24" s="22">
         <v>2.8867513459481293E-5</v>
       </c>
-      <c r="G24" s="55">
+      <c r="G24" s="23">
         <v>-1.2988281250000001E-4</v>
       </c>
       <c r="H24" s="43">
         <v>3.7493938379990304E-9</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="59">
+      <c r="D25" s="26">
         <v>0.05</v>
       </c>
-      <c r="E25" s="51" t="s">
+      <c r="E25" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="57">
+      <c r="F25" s="24">
         <v>2.8867513459481293E-5</v>
       </c>
-      <c r="G25" s="58">
+      <c r="G25" s="25">
         <v>-1.2988281250000001E-4</v>
       </c>
       <c r="H25" s="44">
         <v>3.7493938379990304E-9</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26" s="13">
         <v>4</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="49" t="s">
+      <c r="E26" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F26" s="60">
+      <c r="F26" s="27">
         <v>0.28867513459481292</v>
       </c>
-      <c r="G26" s="61">
+      <c r="G26" s="28">
         <v>-2.5976562500000001E-7</v>
       </c>
       <c r="H26" s="43">
         <v>7.4987876759980681E-8</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9">
       <c r="A27" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="62">
+      <c r="D27" s="29">
         <v>0.5</v>
       </c>
-      <c r="E27" s="51" t="s">
+      <c r="E27" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="63">
+      <c r="F27" s="30">
         <v>0.28867513459481292</v>
       </c>
-      <c r="G27" s="64">
+      <c r="G27" s="31">
         <v>-2.5976562500000001E-7</v>
       </c>
       <c r="H27" s="44">
         <v>7.4987876759980681E-8</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9">
       <c r="A28" s="13">
         <v>5</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="49" t="s">
+      <c r="E28" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="60">
+      <c r="F28" s="27">
         <v>0.28867513459481292</v>
       </c>
-      <c r="G28" s="61">
+      <c r="G28" s="28">
         <v>2.5976562500000001E-7</v>
       </c>
       <c r="H28" s="43">
         <v>7.4987876759980681E-8</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9">
       <c r="A29" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="62">
+      <c r="D29" s="29">
         <v>0.5</v>
       </c>
-      <c r="E29" s="51" t="s">
+      <c r="E29" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="63">
+      <c r="F29" s="30">
         <v>0.28867513459481292</v>
       </c>
-      <c r="G29" s="64">
+      <c r="G29" s="31">
         <v>2.5976562500000001E-7</v>
       </c>
       <c r="H29" s="44">
         <v>7.4987876759980681E-8</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30" s="17">
         <v>6</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="51" t="s">
+      <c r="D30" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="51" t="s">
+      <c r="E30" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F30" s="51" t="s">
+      <c r="F30" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="51" t="s">
+      <c r="G30" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="H30" s="65">
+      <c r="H30" s="49">
         <v>1.9307502331381792E-8</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="A31" s="32" t="s">
         <v>92</v>
       </c>
@@ -5901,7 +5860,7 @@
         <v>3.0507900270517998E-7</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:9">
       <c r="H32" s="47">
         <v>2</v>
       </c>
